--- a/teaching/traditional_assets/database/data/kenya/kenya_electrical_equipment.xlsx
+++ b/teaching/traditional_assets/database/data/kenya/kenya_electrical_equipment.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="nase_cabl" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,25 +593,28 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.142</v>
+        <v>-0.208</v>
+      </c>
+      <c r="E2">
+        <v>0.182</v>
       </c>
       <c r="G2">
-        <v>-0.3120728929384966</v>
+        <v>0.7564102564102565</v>
       </c>
       <c r="H2">
-        <v>-0.3120728929384966</v>
+        <v>0.7564102564102565</v>
       </c>
       <c r="I2">
-        <v>-0.4574407313482692</v>
+        <v>0.5852564102564103</v>
       </c>
       <c r="J2">
-        <v>-0.4574407313482692</v>
+        <v>0.5605856015779093</v>
       </c>
       <c r="K2">
-        <v>-23</v>
+        <v>6.69</v>
       </c>
       <c r="L2">
-        <v>-0.5239179954441914</v>
+        <v>0.4288461538461539</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -618,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,79 +632,58 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.2235421166306695</v>
-      </c>
-      <c r="W2">
-        <v>1.619718309859155</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.7612744774512122</v>
-      </c>
-      <c r="Y2">
-        <v>0.8584438324079428</v>
-      </c>
-      <c r="Z2">
-        <v>1.679210346859514</v>
-      </c>
-      <c r="AA2">
-        <v>-0.7681392091549969</v>
+        <v>0.1156175540593941</v>
       </c>
       <c r="AB2">
-        <v>0.1437129212786323</v>
-      </c>
-      <c r="AC2">
-        <v>-0.9118521304336291</v>
+        <v>0.1156175540593941</v>
       </c>
       <c r="AD2">
-        <v>66.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.4532405309450883</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>67.3532405309451</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>65.28324053094511</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.879133163721749</v>
-      </c>
-      <c r="AI2">
-        <v>1.774637411422847</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.8757767983516104</v>
-      </c>
-      <c r="AK2">
-        <v>1.819323995407994</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>10.5</v>
+        <v>2.67</v>
       </c>
       <c r="AM2">
-        <v>10.5</v>
+        <v>2.67</v>
       </c>
       <c r="AN2">
-        <v>-4.553808454155606</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-1.923809523809524</v>
+        <v>3.419475655430712</v>
       </c>
       <c r="AP2">
-        <v>-4.443757438632163</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-1.923809523809524</v>
+        <v>3.419475655430712</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +694,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TransCentury PLC (NASE:TCL)</t>
+          <t>East African Cables PLC (NASE:CABL)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,25 +703,28 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.142</v>
+        <v>-0.208</v>
+      </c>
+      <c r="E3">
+        <v>0.182</v>
       </c>
       <c r="G3">
-        <v>-0.3120728929384966</v>
+        <v>0.7564102564102565</v>
       </c>
       <c r="H3">
-        <v>-0.3120728929384966</v>
+        <v>0.7564102564102565</v>
       </c>
       <c r="I3">
-        <v>-0.4574407313482692</v>
+        <v>0.5852564102564103</v>
       </c>
       <c r="J3">
-        <v>-0.4574407313482692</v>
+        <v>0.5605856015779093</v>
       </c>
       <c r="K3">
-        <v>-23</v>
+        <v>6.69</v>
       </c>
       <c r="L3">
-        <v>-0.5239179954441914</v>
+        <v>0.4288461538461539</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -746,7 +733,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,79 +742,8773 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.2235421166306695</v>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0.1156175540593941</v>
+      </c>
+      <c r="AB3">
+        <v>0.1156175540593941</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>2.67</v>
+      </c>
+      <c r="AM3">
+        <v>2.67</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>3.419475655430712</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>3.419475655430712</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>East African Cables PLC (NASE:CABL)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NASE:CABL</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Electrical Equipment</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Kenya</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.99</v>
+      </c>
+      <c r="G2">
+        <v>3.2</v>
+      </c>
+      <c r="H2">
+        <v>0.15101805857036</v>
+      </c>
+      <c r="I2">
+        <v>3.2</v>
+      </c>
+      <c r="J2">
+        <v>3.31901805857036</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>3.168</v>
+      </c>
+      <c r="M2">
+        <v>0.115617554059394</v>
+      </c>
+      <c r="N2">
+        <v>0.086060840503754</v>
+      </c>
+      <c r="O2">
+        <v>0.0521026900335452</v>
+      </c>
+      <c r="P2">
+        <v>0.01134</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Ba2/BB</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.115617554059394</v>
+      </c>
+      <c r="T2">
+        <v>7.4834240503754</v>
+      </c>
+      <c r="U2">
+        <v>1.05791352708943</v>
+      </c>
+      <c r="V2">
+        <v>74.3713209543869</v>
+      </c>
+      <c r="W2">
+        <v>178.4823544082803</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>3.2</v>
+      </c>
+      <c r="AB2">
+        <v>0.10049739542692</v>
+      </c>
+      <c r="AC2">
+        <v>0.07443241433363595</v>
+      </c>
+      <c r="AD2">
+        <v>0.3</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>11.8</v>
+      </c>
+      <c r="AH2">
+        <v>2.64</v>
+      </c>
+      <c r="AI2">
+        <v>-4.440892098500626e-16</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>2.67</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1156175540593941</v>
+      </c>
+      <c r="C2">
+        <v>3.2</v>
+      </c>
+      <c r="D2">
+        <v>3.2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>3.2</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>11.8</v>
+      </c>
+      <c r="K2">
+        <v>2.64</v>
+      </c>
+      <c r="L2">
+        <v>9.16</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>9.16</v>
+      </c>
+      <c r="O2">
+        <v>2.748</v>
+      </c>
+      <c r="P2">
+        <v>6.412000000000001</v>
+      </c>
+      <c r="Q2">
+        <v>9.052000000000001</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.1156175540593941</v>
+      </c>
+      <c r="T2">
+        <v>1.05791352708943</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.3</v>
+      </c>
+      <c r="W2">
+        <v>0.01134</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.1153190013972159</v>
+      </c>
+      <c r="C3">
+        <v>3.169159512319203</v>
+      </c>
+      <c r="D3">
+        <v>3.201159512319203</v>
+      </c>
+      <c r="E3">
+        <v>0.032</v>
+      </c>
+      <c r="F3">
+        <v>0.032</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3.2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>11.8</v>
+      </c>
+      <c r="K3">
+        <v>2.64</v>
+      </c>
+      <c r="L3">
+        <v>9.16</v>
+      </c>
+      <c r="M3">
+        <v>0.0005184</v>
+      </c>
+      <c r="N3">
+        <v>9.159481599999999</v>
+      </c>
+      <c r="O3">
+        <v>2.74784448</v>
+      </c>
+      <c r="P3">
+        <v>6.41163712</v>
+      </c>
+      <c r="Q3">
+        <v>9.051637120000001</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.1163692943406221</v>
+      </c>
+      <c r="T3">
+        <v>1.065393723745618</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.3</v>
       </c>
       <c r="W3">
-        <v>1.619718309859155</v>
-      </c>
-      <c r="X3">
-        <v>0.7612744774512122</v>
+        <v>0.01134</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
       </c>
       <c r="Y3">
-        <v>0.8584438324079428</v>
+        <v>17669.75308641975</v>
       </c>
       <c r="Z3">
-        <v>1.679210346859514</v>
-      </c>
-      <c r="AA3">
-        <v>-0.7681392091549969</v>
-      </c>
-      <c r="AB3">
-        <v>0.1437129212786323</v>
-      </c>
-      <c r="AC3">
-        <v>-0.9118521304336291</v>
-      </c>
-      <c r="AD3">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="AE3">
-        <v>0.4532405309450883</v>
-      </c>
-      <c r="AF3">
-        <v>67.3532405309451</v>
-      </c>
-      <c r="AG3">
-        <v>65.28324053094511</v>
-      </c>
-      <c r="AH3">
-        <v>0.879133163721749</v>
-      </c>
-      <c r="AI3">
-        <v>1.774637411422847</v>
-      </c>
-      <c r="AJ3">
-        <v>0.8757767983516104</v>
-      </c>
-      <c r="AK3">
-        <v>1.819323995407994</v>
-      </c>
-      <c r="AL3">
-        <v>10.5</v>
-      </c>
-      <c r="AM3">
-        <v>10.5</v>
-      </c>
-      <c r="AN3">
-        <v>-4.553808454155606</v>
-      </c>
-      <c r="AO3">
-        <v>-1.923809523809524</v>
-      </c>
-      <c r="AP3">
-        <v>-4.443757438632163</v>
-      </c>
-      <c r="AQ3">
-        <v>-1.923809523809524</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.1150204487350377</v>
+      </c>
+      <c r="C4">
+        <v>3.138319865236005</v>
+      </c>
+      <c r="D4">
+        <v>3.202319865236005</v>
+      </c>
+      <c r="E4">
+        <v>0.064</v>
+      </c>
+      <c r="F4">
+        <v>0.064</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>3.2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>11.8</v>
+      </c>
+      <c r="K4">
+        <v>2.64</v>
+      </c>
+      <c r="L4">
+        <v>9.16</v>
+      </c>
+      <c r="M4">
+        <v>0.0010368</v>
+      </c>
+      <c r="N4">
+        <v>9.158963200000001</v>
+      </c>
+      <c r="O4">
+        <v>2.74768896</v>
+      </c>
+      <c r="P4">
+        <v>6.411274240000001</v>
+      </c>
+      <c r="Q4">
+        <v>9.051274240000001</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.1171363762602426</v>
+      </c>
+      <c r="T4">
+        <v>1.073026577476422</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.3</v>
+      </c>
+      <c r="W4">
+        <v>0.01134</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>8834.876543209877</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.1147218960728595</v>
+      </c>
+      <c r="C5">
+        <v>3.107481059664837</v>
+      </c>
+      <c r="D5">
+        <v>3.203481059664837</v>
+      </c>
+      <c r="E5">
+        <v>0.096</v>
+      </c>
+      <c r="F5">
+        <v>0.096</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>3.2</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>11.8</v>
+      </c>
+      <c r="K5">
+        <v>2.64</v>
+      </c>
+      <c r="L5">
+        <v>9.16</v>
+      </c>
+      <c r="M5">
+        <v>0.0015552</v>
+      </c>
+      <c r="N5">
+        <v>9.1584448</v>
+      </c>
+      <c r="O5">
+        <v>2.74753344</v>
+      </c>
+      <c r="P5">
+        <v>6.41091136</v>
+      </c>
+      <c r="Q5">
+        <v>9.050911360000001</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.117919274301917</v>
+      </c>
+      <c r="T5">
+        <v>1.080816809634665</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.3</v>
+      </c>
+      <c r="W5">
+        <v>0.01134</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>5889.917695473251</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.1144233434106813</v>
+      </c>
+      <c r="C6">
+        <v>3.076643096521451</v>
+      </c>
+      <c r="D6">
+        <v>3.204643096521451</v>
+      </c>
+      <c r="E6">
+        <v>0.128</v>
+      </c>
+      <c r="F6">
+        <v>0.128</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3.2</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>11.8</v>
+      </c>
+      <c r="K6">
+        <v>2.64</v>
+      </c>
+      <c r="L6">
+        <v>9.16</v>
+      </c>
+      <c r="M6">
+        <v>0.0020736</v>
+      </c>
+      <c r="N6">
+        <v>9.157926400000001</v>
+      </c>
+      <c r="O6">
+        <v>2.74737792</v>
+      </c>
+      <c r="P6">
+        <v>6.410548480000001</v>
+      </c>
+      <c r="Q6">
+        <v>9.050548480000002</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.1187184827194597</v>
+      </c>
+      <c r="T6">
+        <v>1.088769338296205</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.3</v>
+      </c>
+      <c r="W6">
+        <v>0.01134</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>4417.438271604939</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.1141247907485032</v>
+      </c>
+      <c r="C7">
+        <v>3.045805976722932</v>
+      </c>
+      <c r="D7">
+        <v>3.205805976722933</v>
+      </c>
+      <c r="E7">
+        <v>0.16</v>
+      </c>
+      <c r="F7">
+        <v>0.16</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>3.2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>11.8</v>
+      </c>
+      <c r="K7">
+        <v>2.64</v>
+      </c>
+      <c r="L7">
+        <v>9.16</v>
+      </c>
+      <c r="M7">
+        <v>0.002592000000000001</v>
+      </c>
+      <c r="N7">
+        <v>9.157408</v>
+      </c>
+      <c r="O7">
+        <v>2.7472224</v>
+      </c>
+      <c r="P7">
+        <v>6.4101856</v>
+      </c>
+      <c r="Q7">
+        <v>9.050185600000001</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.1195345165773717</v>
+      </c>
+      <c r="T7">
+        <v>1.096889288613778</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.3</v>
+      </c>
+      <c r="W7">
+        <v>0.01134</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>3533.95061728395</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.113826238086325</v>
+      </c>
+      <c r="C8">
+        <v>3.014969701187697</v>
+      </c>
+      <c r="D8">
+        <v>3.206969701187698</v>
+      </c>
+      <c r="E8">
+        <v>0.192</v>
+      </c>
+      <c r="F8">
+        <v>0.192</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>3.2</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>11.8</v>
+      </c>
+      <c r="K8">
+        <v>2.64</v>
+      </c>
+      <c r="L8">
+        <v>9.16</v>
+      </c>
+      <c r="M8">
+        <v>0.0031104</v>
+      </c>
+      <c r="N8">
+        <v>9.1568896</v>
+      </c>
+      <c r="O8">
+        <v>2.74706688</v>
+      </c>
+      <c r="P8">
+        <v>6.409822719999999</v>
+      </c>
+      <c r="Q8">
+        <v>9.04982272</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.1203679128577925</v>
+      </c>
+      <c r="T8">
+        <v>1.105182003831724</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.3</v>
+      </c>
+      <c r="W8">
+        <v>0.01134</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>2944.958847736626</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.1135276854241468</v>
+      </c>
+      <c r="C9">
+        <v>2.984134270835496</v>
+      </c>
+      <c r="D9">
+        <v>3.208134270835496</v>
+      </c>
+      <c r="E9">
+        <v>0.224</v>
+      </c>
+      <c r="F9">
+        <v>0.224</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>3.2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>11.8</v>
+      </c>
+      <c r="K9">
+        <v>2.64</v>
+      </c>
+      <c r="L9">
+        <v>9.16</v>
+      </c>
+      <c r="M9">
+        <v>0.0036288</v>
+      </c>
+      <c r="N9">
+        <v>9.156371200000001</v>
+      </c>
+      <c r="O9">
+        <v>2.74691136</v>
+      </c>
+      <c r="P9">
+        <v>6.40945984</v>
+      </c>
+      <c r="Q9">
+        <v>9.049459840000001</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.1212192316388675</v>
+      </c>
+      <c r="T9">
+        <v>1.113653057011347</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.3</v>
+      </c>
+      <c r="W9">
+        <v>0.01134</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>2524.250440917107</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.1132291327619686</v>
+      </c>
+      <c r="C10">
+        <v>2.953299686587415</v>
+      </c>
+      <c r="D10">
+        <v>3.209299686587415</v>
+      </c>
+      <c r="E10">
+        <v>0.256</v>
+      </c>
+      <c r="F10">
+        <v>0.256</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>3.2</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>11.8</v>
+      </c>
+      <c r="K10">
+        <v>2.64</v>
+      </c>
+      <c r="L10">
+        <v>9.16</v>
+      </c>
+      <c r="M10">
+        <v>0.0041472</v>
+      </c>
+      <c r="N10">
+        <v>9.1558528</v>
+      </c>
+      <c r="O10">
+        <v>2.74675584</v>
+      </c>
+      <c r="P10">
+        <v>6.409096959999999</v>
+      </c>
+      <c r="Q10">
+        <v>9.04909696</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.1220890573499659</v>
+      </c>
+      <c r="T10">
+        <v>1.122308263520961</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.3</v>
+      </c>
+      <c r="W10">
+        <v>0.01134</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>2208.719135802469</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.1129305800997904</v>
+      </c>
+      <c r="C11">
+        <v>2.922465949365879</v>
+      </c>
+      <c r="D11">
+        <v>3.210465949365879</v>
+      </c>
+      <c r="E11">
+        <v>0.288</v>
+      </c>
+      <c r="F11">
+        <v>0.288</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>3.2</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>11.8</v>
+      </c>
+      <c r="K11">
+        <v>2.64</v>
+      </c>
+      <c r="L11">
+        <v>9.16</v>
+      </c>
+      <c r="M11">
+        <v>0.0046656</v>
+      </c>
+      <c r="N11">
+        <v>9.155334400000001</v>
+      </c>
+      <c r="O11">
+        <v>2.74660032</v>
+      </c>
+      <c r="P11">
+        <v>6.40873408</v>
+      </c>
+      <c r="Q11">
+        <v>9.048734080000001</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.1229780001096598</v>
+      </c>
+      <c r="T11">
+        <v>1.131153694349468</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.3</v>
+      </c>
+      <c r="W11">
+        <v>0.01134</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>1963.305898491084</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.1126320274376122</v>
+      </c>
+      <c r="C12">
+        <v>2.891633060094654</v>
+      </c>
+      <c r="D12">
+        <v>3.211633060094654</v>
+      </c>
+      <c r="E12">
+        <v>0.3200000000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.3200000000000001</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>3.2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>11.8</v>
+      </c>
+      <c r="K12">
+        <v>2.64</v>
+      </c>
+      <c r="L12">
+        <v>9.16</v>
+      </c>
+      <c r="M12">
+        <v>0.005184000000000001</v>
+      </c>
+      <c r="N12">
+        <v>9.154816</v>
+      </c>
+      <c r="O12">
+        <v>2.7464448</v>
+      </c>
+      <c r="P12">
+        <v>6.4083712</v>
+      </c>
+      <c r="Q12">
+        <v>9.0483712</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.1238866971529025</v>
+      </c>
+      <c r="T12">
+        <v>1.140195690307497</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.3</v>
+      </c>
+      <c r="W12">
+        <v>0.01134</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>1766.975308641975</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.1123334747754341</v>
+      </c>
+      <c r="C13">
+        <v>2.860801019698851</v>
+      </c>
+      <c r="D13">
+        <v>3.212801019698851</v>
+      </c>
+      <c r="E13">
+        <v>0.352</v>
+      </c>
+      <c r="F13">
+        <v>0.352</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>3.2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>11.8</v>
+      </c>
+      <c r="K13">
+        <v>2.64</v>
+      </c>
+      <c r="L13">
+        <v>9.16</v>
+      </c>
+      <c r="M13">
+        <v>0.0057024</v>
+      </c>
+      <c r="N13">
+        <v>9.1542976</v>
+      </c>
+      <c r="O13">
+        <v>2.74628928</v>
+      </c>
+      <c r="P13">
+        <v>6.40800832</v>
+      </c>
+      <c r="Q13">
+        <v>9.048008320000001</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.1248158143544203</v>
+      </c>
+      <c r="T13">
+        <v>1.149440877185931</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.3</v>
+      </c>
+      <c r="W13">
+        <v>0.01134</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>1606.341189674523</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.1120349221132559</v>
+      </c>
+      <c r="C14">
+        <v>2.829969829104928</v>
+      </c>
+      <c r="D14">
+        <v>3.213969829104928</v>
+      </c>
+      <c r="E14">
+        <v>0.384</v>
+      </c>
+      <c r="F14">
+        <v>0.384</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>3.2</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>11.8</v>
+      </c>
+      <c r="K14">
+        <v>2.64</v>
+      </c>
+      <c r="L14">
+        <v>9.16</v>
+      </c>
+      <c r="M14">
+        <v>0.006220799999999999</v>
+      </c>
+      <c r="N14">
+        <v>9.153779200000001</v>
+      </c>
+      <c r="O14">
+        <v>2.74613376</v>
+      </c>
+      <c r="P14">
+        <v>6.40764544</v>
+      </c>
+      <c r="Q14">
+        <v>9.04764544</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.1257660478559726</v>
+      </c>
+      <c r="T14">
+        <v>1.158896181947967</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.3</v>
+      </c>
+      <c r="W14">
+        <v>0.01134</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>1472.479423868313</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.1117363694510777</v>
+      </c>
+      <c r="C15">
+        <v>2.799139489240689</v>
+      </c>
+      <c r="D15">
+        <v>3.215139489240689</v>
+      </c>
+      <c r="E15">
+        <v>0.416</v>
+      </c>
+      <c r="F15">
+        <v>0.416</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>3.2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>11.8</v>
+      </c>
+      <c r="K15">
+        <v>2.64</v>
+      </c>
+      <c r="L15">
+        <v>9.16</v>
+      </c>
+      <c r="M15">
+        <v>0.0067392</v>
+      </c>
+      <c r="N15">
+        <v>9.1532608</v>
+      </c>
+      <c r="O15">
+        <v>2.74597824</v>
+      </c>
+      <c r="P15">
+        <v>6.407282560000001</v>
+      </c>
+      <c r="Q15">
+        <v>9.047282560000001</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.1267381258058364</v>
+      </c>
+      <c r="T15">
+        <v>1.168568850037865</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.3</v>
+      </c>
+      <c r="W15">
+        <v>0.01134</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>1359.211775878442</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.1114378167888995</v>
+      </c>
+      <c r="C16">
+        <v>2.768310001035289</v>
+      </c>
+      <c r="D16">
+        <v>3.216310001035289</v>
+      </c>
+      <c r="E16">
+        <v>0.4480000000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.4480000000000001</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>3.2</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>11.8</v>
+      </c>
+      <c r="K16">
+        <v>2.64</v>
+      </c>
+      <c r="L16">
+        <v>9.16</v>
+      </c>
+      <c r="M16">
+        <v>0.0072576</v>
+      </c>
+      <c r="N16">
+        <v>9.152742399999999</v>
+      </c>
+      <c r="O16">
+        <v>2.74582272</v>
+      </c>
+      <c r="P16">
+        <v>6.40691968</v>
+      </c>
+      <c r="Q16">
+        <v>9.04691968</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.1277328102196506</v>
+      </c>
+      <c r="T16">
+        <v>1.178466463897295</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.3</v>
+      </c>
+      <c r="W16">
+        <v>0.01134</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>1262.125220458554</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.1111392641267213</v>
+      </c>
+      <c r="C17">
+        <v>2.737481365419241</v>
+      </c>
+      <c r="D17">
+        <v>3.217481365419241</v>
+      </c>
+      <c r="E17">
+        <v>0.48</v>
+      </c>
+      <c r="F17">
+        <v>0.48</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>3.2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>11.8</v>
+      </c>
+      <c r="K17">
+        <v>2.64</v>
+      </c>
+      <c r="L17">
+        <v>9.16</v>
+      </c>
+      <c r="M17">
+        <v>0.007775999999999999</v>
+      </c>
+      <c r="N17">
+        <v>9.152224</v>
+      </c>
+      <c r="O17">
+        <v>2.7456672</v>
+      </c>
+      <c r="P17">
+        <v>6.406556800000001</v>
+      </c>
+      <c r="Q17">
+        <v>9.046556800000001</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.1287508989726133</v>
+      </c>
+      <c r="T17">
+        <v>1.188596962788713</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.3</v>
+      </c>
+      <c r="W17">
+        <v>0.01134</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>1177.98353909465</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.1108407114645431</v>
+      </c>
+      <c r="C18">
+        <v>2.706653583324408</v>
+      </c>
+      <c r="D18">
+        <v>3.218653583324408</v>
+      </c>
+      <c r="E18">
+        <v>0.512</v>
+      </c>
+      <c r="F18">
+        <v>0.512</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>3.2</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>11.8</v>
+      </c>
+      <c r="K18">
+        <v>2.64</v>
+      </c>
+      <c r="L18">
+        <v>9.16</v>
+      </c>
+      <c r="M18">
+        <v>0.0082944</v>
+      </c>
+      <c r="N18">
+        <v>9.1517056</v>
+      </c>
+      <c r="O18">
+        <v>2.74551168</v>
+      </c>
+      <c r="P18">
+        <v>6.40619392</v>
+      </c>
+      <c r="Q18">
+        <v>9.04619392</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.1297932279339799</v>
+      </c>
+      <c r="T18">
+        <v>1.198968664034687</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.3</v>
+      </c>
+      <c r="W18">
+        <v>0.01134</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>1104.359567901234</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.110542158802365</v>
+      </c>
+      <c r="C19">
+        <v>2.675826655684016</v>
+      </c>
+      <c r="D19">
+        <v>3.219826655684016</v>
+      </c>
+      <c r="E19">
+        <v>0.544</v>
+      </c>
+      <c r="F19">
+        <v>0.544</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3.2</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>11.8</v>
+      </c>
+      <c r="K19">
+        <v>2.64</v>
+      </c>
+      <c r="L19">
+        <v>9.16</v>
+      </c>
+      <c r="M19">
+        <v>0.008812800000000001</v>
+      </c>
+      <c r="N19">
+        <v>9.151187200000001</v>
+      </c>
+      <c r="O19">
+        <v>2.74535616</v>
+      </c>
+      <c r="P19">
+        <v>6.405831040000001</v>
+      </c>
+      <c r="Q19">
+        <v>9.045831040000001</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.1308606732558614</v>
+      </c>
+      <c r="T19">
+        <v>1.209590285792614</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.3</v>
+      </c>
+      <c r="W19">
+        <v>0.01134</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>1039.397240377632</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.1102436061401868</v>
+      </c>
+      <c r="C20">
+        <v>2.645000583432651</v>
+      </c>
+      <c r="D20">
+        <v>3.221000583432651</v>
+      </c>
+      <c r="E20">
+        <v>0.576</v>
+      </c>
+      <c r="F20">
+        <v>0.576</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>3.2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>11.8</v>
+      </c>
+      <c r="K20">
+        <v>2.64</v>
+      </c>
+      <c r="L20">
+        <v>9.16</v>
+      </c>
+      <c r="M20">
+        <v>0.0093312</v>
+      </c>
+      <c r="N20">
+        <v>9.1506688</v>
+      </c>
+      <c r="O20">
+        <v>2.74520064</v>
+      </c>
+      <c r="P20">
+        <v>6.40546816</v>
+      </c>
+      <c r="Q20">
+        <v>9.04546816</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.1319541538294961</v>
+      </c>
+      <c r="T20">
+        <v>1.220470971495855</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.3</v>
+      </c>
+      <c r="W20">
+        <v>0.01134</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>981.6529492455419</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.1099450534780086</v>
+      </c>
+      <c r="C21">
+        <v>2.614175367506261</v>
+      </c>
+      <c r="D21">
+        <v>3.222175367506261</v>
+      </c>
+      <c r="E21">
+        <v>0.6080000000000001</v>
+      </c>
+      <c r="F21">
+        <v>0.6080000000000001</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>3.2</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>11.8</v>
+      </c>
+      <c r="K21">
+        <v>2.64</v>
+      </c>
+      <c r="L21">
+        <v>9.16</v>
+      </c>
+      <c r="M21">
+        <v>0.009849600000000002</v>
+      </c>
+      <c r="N21">
+        <v>9.150150399999999</v>
+      </c>
+      <c r="O21">
+        <v>2.74504512</v>
+      </c>
+      <c r="P21">
+        <v>6.405105279999999</v>
+      </c>
+      <c r="Q21">
+        <v>9.04510528</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.1330746339234674</v>
+      </c>
+      <c r="T21">
+        <v>1.231620316105349</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.3</v>
+      </c>
+      <c r="W21">
+        <v>0.01134</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>929.9870045484079</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.1096465008158304</v>
+      </c>
+      <c r="C22">
+        <v>2.583351008842162</v>
+      </c>
+      <c r="D22">
+        <v>3.223351008842162</v>
+      </c>
+      <c r="E22">
+        <v>0.6400000000000001</v>
+      </c>
+      <c r="F22">
+        <v>0.6400000000000001</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>3.2</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>11.8</v>
+      </c>
+      <c r="K22">
+        <v>2.64</v>
+      </c>
+      <c r="L22">
+        <v>9.16</v>
+      </c>
+      <c r="M22">
+        <v>0.010368</v>
+      </c>
+      <c r="N22">
+        <v>9.149632</v>
+      </c>
+      <c r="O22">
+        <v>2.7448896</v>
+      </c>
+      <c r="P22">
+        <v>6.4047424</v>
+      </c>
+      <c r="Q22">
+        <v>9.044742400000001</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.134223126019788</v>
+      </c>
+      <c r="T22">
+        <v>1.243048394330081</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.3</v>
+      </c>
+      <c r="W22">
+        <v>0.01134</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>883.4876543209875</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.1093479481536522</v>
+      </c>
+      <c r="C23">
+        <v>2.552527508379036</v>
+      </c>
+      <c r="D23">
+        <v>3.224527508379036</v>
+      </c>
+      <c r="E23">
+        <v>0.672</v>
+      </c>
+      <c r="F23">
+        <v>0.672</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>3.2</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>11.8</v>
+      </c>
+      <c r="K23">
+        <v>2.64</v>
+      </c>
+      <c r="L23">
+        <v>9.16</v>
+      </c>
+      <c r="M23">
+        <v>0.0108864</v>
+      </c>
+      <c r="N23">
+        <v>9.1491136</v>
+      </c>
+      <c r="O23">
+        <v>2.74473408</v>
+      </c>
+      <c r="P23">
+        <v>6.40437952</v>
+      </c>
+      <c r="Q23">
+        <v>9.04437952</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.1354006938653826</v>
+      </c>
+      <c r="T23">
+        <v>1.254765790990881</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.3</v>
+      </c>
+      <c r="W23">
+        <v>0.01134</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>841.4168136390358</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.1090493954914741</v>
+      </c>
+      <c r="C24">
+        <v>2.521704867056938</v>
+      </c>
+      <c r="D24">
+        <v>3.225704867056939</v>
+      </c>
+      <c r="E24">
+        <v>0.7040000000000001</v>
+      </c>
+      <c r="F24">
+        <v>0.7040000000000001</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>3.2</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>11.8</v>
+      </c>
+      <c r="K24">
+        <v>2.64</v>
+      </c>
+      <c r="L24">
+        <v>9.16</v>
+      </c>
+      <c r="M24">
+        <v>0.0114048</v>
+      </c>
+      <c r="N24">
+        <v>9.148595200000001</v>
+      </c>
+      <c r="O24">
+        <v>2.74457856</v>
+      </c>
+      <c r="P24">
+        <v>6.40401664</v>
+      </c>
+      <c r="Q24">
+        <v>9.044016640000001</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.1366084557583001</v>
+      </c>
+      <c r="T24">
+        <v>1.266783633719907</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.3</v>
+      </c>
+      <c r="W24">
+        <v>0.01134</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>803.1705948372615</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.1087508428292959</v>
+      </c>
+      <c r="C25">
+        <v>2.490883085817296</v>
+      </c>
+      <c r="D25">
+        <v>3.226883085817296</v>
+      </c>
+      <c r="E25">
+        <v>0.7360000000000001</v>
+      </c>
+      <c r="F25">
+        <v>0.7360000000000001</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>3.2</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>11.8</v>
+      </c>
+      <c r="K25">
+        <v>2.64</v>
+      </c>
+      <c r="L25">
+        <v>9.16</v>
+      </c>
+      <c r="M25">
+        <v>0.0119232</v>
+      </c>
+      <c r="N25">
+        <v>9.1480768</v>
+      </c>
+      <c r="O25">
+        <v>2.74442304</v>
+      </c>
+      <c r="P25">
+        <v>6.40365376</v>
+      </c>
+      <c r="Q25">
+        <v>9.04365376</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.1378475880899946</v>
+      </c>
+      <c r="T25">
+        <v>1.279113628208129</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.3</v>
+      </c>
+      <c r="W25">
+        <v>0.01134</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>768.2501341921632</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.1084522901671177</v>
+      </c>
+      <c r="C26">
+        <v>2.460062165602914</v>
+      </c>
+      <c r="D26">
+        <v>3.228062165602914</v>
+      </c>
+      <c r="E26">
+        <v>0.768</v>
+      </c>
+      <c r="F26">
+        <v>0.768</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>3.2</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>11.8</v>
+      </c>
+      <c r="K26">
+        <v>2.64</v>
+      </c>
+      <c r="L26">
+        <v>9.16</v>
+      </c>
+      <c r="M26">
+        <v>0.0124416</v>
+      </c>
+      <c r="N26">
+        <v>9.147558399999999</v>
+      </c>
+      <c r="O26">
+        <v>2.74426752</v>
+      </c>
+      <c r="P26">
+        <v>6.40329088</v>
+      </c>
+      <c r="Q26">
+        <v>9.043290880000001</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.1391193291672601</v>
+      </c>
+      <c r="T26">
+        <v>1.291768096235515</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.3</v>
+      </c>
+      <c r="W26">
+        <v>0.01134</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>736.2397119341564</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.1081537375049395</v>
+      </c>
+      <c r="C27">
+        <v>2.429242107357974</v>
+      </c>
+      <c r="D27">
+        <v>3.229242107357974</v>
+      </c>
+      <c r="E27">
+        <v>0.8</v>
+      </c>
+      <c r="F27">
+        <v>0.8</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>3.2</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>11.8</v>
+      </c>
+      <c r="K27">
+        <v>2.64</v>
+      </c>
+      <c r="L27">
+        <v>9.16</v>
+      </c>
+      <c r="M27">
+        <v>0.01296</v>
+      </c>
+      <c r="N27">
+        <v>9.147040000000001</v>
+      </c>
+      <c r="O27">
+        <v>2.744112</v>
+      </c>
+      <c r="P27">
+        <v>6.402928000000001</v>
+      </c>
+      <c r="Q27">
+        <v>9.042928000000002</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.1404249833399193</v>
+      </c>
+      <c r="T27">
+        <v>1.304760016743631</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.3</v>
+      </c>
+      <c r="W27">
+        <v>0.01134</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>706.7901234567902</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.1078551848427613</v>
+      </c>
+      <c r="C28">
+        <v>2.398422912028039</v>
+      </c>
+      <c r="D28">
+        <v>3.230422912028039</v>
+      </c>
+      <c r="E28">
+        <v>0.8320000000000001</v>
+      </c>
+      <c r="F28">
+        <v>0.8320000000000001</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>3.2</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>11.8</v>
+      </c>
+      <c r="K28">
+        <v>2.64</v>
+      </c>
+      <c r="L28">
+        <v>9.16</v>
+      </c>
+      <c r="M28">
+        <v>0.0134784</v>
+      </c>
+      <c r="N28">
+        <v>9.1465216</v>
+      </c>
+      <c r="O28">
+        <v>2.74395648</v>
+      </c>
+      <c r="P28">
+        <v>6.40256512</v>
+      </c>
+      <c r="Q28">
+        <v>9.042565120000001</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.141765925463191</v>
+      </c>
+      <c r="T28">
+        <v>1.318103070238452</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.3</v>
+      </c>
+      <c r="W28">
+        <v>0.01134</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>679.6058879392212</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1075566321805832</v>
+      </c>
+      <c r="C29">
+        <v>2.367604580560055</v>
+      </c>
+      <c r="D29">
+        <v>3.231604580560056</v>
+      </c>
+      <c r="E29">
+        <v>0.8640000000000001</v>
+      </c>
+      <c r="F29">
+        <v>0.8640000000000001</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>3.2</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>11.8</v>
+      </c>
+      <c r="K29">
+        <v>2.64</v>
+      </c>
+      <c r="L29">
+        <v>9.16</v>
+      </c>
+      <c r="M29">
+        <v>0.0139968</v>
+      </c>
+      <c r="N29">
+        <v>9.146003200000001</v>
+      </c>
+      <c r="O29">
+        <v>2.74380096</v>
+      </c>
+      <c r="P29">
+        <v>6.402202240000001</v>
+      </c>
+      <c r="Q29">
+        <v>9.042202240000002</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.1431436057268262</v>
+      </c>
+      <c r="T29">
+        <v>1.331811686842721</v>
+      </c>
+      <c r="U29">
+        <v>0.0162</v>
+      </c>
+      <c r="V29">
+        <v>0.3</v>
+      </c>
+      <c r="W29">
+        <v>0.01134</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>654.4352994970279</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.107258079518405</v>
+      </c>
+      <c r="C30">
+        <v>2.336787113902356</v>
+      </c>
+      <c r="D30">
+        <v>3.232787113902357</v>
+      </c>
+      <c r="E30">
+        <v>0.8960000000000001</v>
+      </c>
+      <c r="F30">
+        <v>0.8960000000000001</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>3.2</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>11.8</v>
+      </c>
+      <c r="K30">
+        <v>2.64</v>
+      </c>
+      <c r="L30">
+        <v>9.16</v>
+      </c>
+      <c r="M30">
+        <v>0.0145152</v>
+      </c>
+      <c r="N30">
+        <v>9.1454848</v>
+      </c>
+      <c r="O30">
+        <v>2.74364544</v>
+      </c>
+      <c r="P30">
+        <v>6.40183936</v>
+      </c>
+      <c r="Q30">
+        <v>9.041839360000001</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.1445595548866735</v>
+      </c>
+      <c r="T30">
+        <v>1.345901098352664</v>
+      </c>
+      <c r="U30">
+        <v>0.0162</v>
+      </c>
+      <c r="V30">
+        <v>0.3</v>
+      </c>
+      <c r="W30">
+        <v>0.01134</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>631.0626102292769</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1069595268562268</v>
+      </c>
+      <c r="C31">
+        <v>2.305970513004664</v>
+      </c>
+      <c r="D31">
+        <v>3.233970513004664</v>
+      </c>
+      <c r="E31">
+        <v>0.9279999999999999</v>
+      </c>
+      <c r="F31">
+        <v>0.9279999999999999</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>3.2</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>11.8</v>
+      </c>
+      <c r="K31">
+        <v>2.64</v>
+      </c>
+      <c r="L31">
+        <v>9.16</v>
+      </c>
+      <c r="M31">
+        <v>0.0150336</v>
+      </c>
+      <c r="N31">
+        <v>9.144966399999999</v>
+      </c>
+      <c r="O31">
+        <v>2.74348992</v>
+      </c>
+      <c r="P31">
+        <v>6.401476479999999</v>
+      </c>
+      <c r="Q31">
+        <v>9.04147648</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.1460153899383476</v>
+      </c>
+      <c r="T31">
+        <v>1.360387394693873</v>
+      </c>
+      <c r="U31">
+        <v>0.0162</v>
+      </c>
+      <c r="V31">
+        <v>0.3</v>
+      </c>
+      <c r="W31">
+        <v>0.01134</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>609.3018305661984</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1066609741940486</v>
+      </c>
+      <c r="C32">
+        <v>2.275154778818091</v>
+      </c>
+      <c r="D32">
+        <v>3.235154778818091</v>
+      </c>
+      <c r="E32">
+        <v>0.96</v>
+      </c>
+      <c r="F32">
+        <v>0.96</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>3.2</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>11.8</v>
+      </c>
+      <c r="K32">
+        <v>2.64</v>
+      </c>
+      <c r="L32">
+        <v>9.16</v>
+      </c>
+      <c r="M32">
+        <v>0.015552</v>
+      </c>
+      <c r="N32">
+        <v>9.144448000000001</v>
+      </c>
+      <c r="O32">
+        <v>2.7433344</v>
+      </c>
+      <c r="P32">
+        <v>6.4011136</v>
+      </c>
+      <c r="Q32">
+        <v>9.041113600000001</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.1475128202772123</v>
+      </c>
+      <c r="T32">
+        <v>1.375287585216259</v>
+      </c>
+      <c r="U32">
+        <v>0.0162</v>
+      </c>
+      <c r="V32">
+        <v>0.3</v>
+      </c>
+      <c r="W32">
+        <v>0.01134</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>588.9917695473252</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1063624215318704</v>
+      </c>
+      <c r="C33">
+        <v>2.244339912295142</v>
+      </c>
+      <c r="D33">
+        <v>3.236339912295142</v>
+      </c>
+      <c r="E33">
+        <v>0.992</v>
+      </c>
+      <c r="F33">
+        <v>0.992</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>3.2</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>11.8</v>
+      </c>
+      <c r="K33">
+        <v>2.64</v>
+      </c>
+      <c r="L33">
+        <v>9.16</v>
+      </c>
+      <c r="M33">
+        <v>0.0160704</v>
+      </c>
+      <c r="N33">
+        <v>9.1439296</v>
+      </c>
+      <c r="O33">
+        <v>2.74317888</v>
+      </c>
+      <c r="P33">
+        <v>6.40075072</v>
+      </c>
+      <c r="Q33">
+        <v>9.04075072</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.1490536543940151</v>
+      </c>
+      <c r="T33">
+        <v>1.390619665319005</v>
+      </c>
+      <c r="U33">
+        <v>0.0162</v>
+      </c>
+      <c r="V33">
+        <v>0.3</v>
+      </c>
+      <c r="W33">
+        <v>0.01134</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>569.9920350457985</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1060638688696922</v>
+      </c>
+      <c r="C34">
+        <v>2.21352591438972</v>
+      </c>
+      <c r="D34">
+        <v>3.23752591438972</v>
+      </c>
+      <c r="E34">
+        <v>1.024</v>
+      </c>
+      <c r="F34">
+        <v>1.024</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>3.2</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>11.8</v>
+      </c>
+      <c r="K34">
+        <v>2.64</v>
+      </c>
+      <c r="L34">
+        <v>9.16</v>
+      </c>
+      <c r="M34">
+        <v>0.0165888</v>
+      </c>
+      <c r="N34">
+        <v>9.143411200000001</v>
+      </c>
+      <c r="O34">
+        <v>2.74302336</v>
+      </c>
+      <c r="P34">
+        <v>6.40038784</v>
+      </c>
+      <c r="Q34">
+        <v>9.040387840000001</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.1506398071613121</v>
+      </c>
+      <c r="T34">
+        <v>1.406402688954184</v>
+      </c>
+      <c r="U34">
+        <v>0.0162</v>
+      </c>
+      <c r="V34">
+        <v>0.3</v>
+      </c>
+      <c r="W34">
+        <v>0.01134</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>552.1797839506173</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1057653162075141</v>
+      </c>
+      <c r="C35">
+        <v>2.182712786057126</v>
+      </c>
+      <c r="D35">
+        <v>3.238712786057127</v>
+      </c>
+      <c r="E35">
+        <v>1.056</v>
+      </c>
+      <c r="F35">
+        <v>1.056</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>3.2</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>11.8</v>
+      </c>
+      <c r="K35">
+        <v>2.64</v>
+      </c>
+      <c r="L35">
+        <v>9.16</v>
+      </c>
+      <c r="M35">
+        <v>0.0171072</v>
+      </c>
+      <c r="N35">
+        <v>9.1428928</v>
+      </c>
+      <c r="O35">
+        <v>2.74286784</v>
+      </c>
+      <c r="P35">
+        <v>6.40002496</v>
+      </c>
+      <c r="Q35">
+        <v>9.04002496</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.1522733077724091</v>
+      </c>
+      <c r="T35">
+        <v>1.422656847623249</v>
+      </c>
+      <c r="U35">
+        <v>0.0162</v>
+      </c>
+      <c r="V35">
+        <v>0.3</v>
+      </c>
+      <c r="W35">
+        <v>0.01134</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>535.447063224841</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1054667635453359</v>
+      </c>
+      <c r="C36">
+        <v>2.151900528254065</v>
+      </c>
+      <c r="D36">
+        <v>3.239900528254065</v>
+      </c>
+      <c r="E36">
+        <v>1.088</v>
+      </c>
+      <c r="F36">
+        <v>1.088</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>3.2</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>11.8</v>
+      </c>
+      <c r="K36">
+        <v>2.64</v>
+      </c>
+      <c r="L36">
+        <v>9.16</v>
+      </c>
+      <c r="M36">
+        <v>0.0176256</v>
+      </c>
+      <c r="N36">
+        <v>9.1423744</v>
+      </c>
+      <c r="O36">
+        <v>2.74271232</v>
+      </c>
+      <c r="P36">
+        <v>6.39966208</v>
+      </c>
+      <c r="Q36">
+        <v>9.039662079999999</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.153956308402024</v>
+      </c>
+      <c r="T36">
+        <v>1.439403556555013</v>
+      </c>
+      <c r="U36">
+        <v>0.0162</v>
+      </c>
+      <c r="V36">
+        <v>0.3</v>
+      </c>
+      <c r="W36">
+        <v>0.01134</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>519.6986201888162</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1051682108831577</v>
+      </c>
+      <c r="C37">
+        <v>2.12108914193864</v>
+      </c>
+      <c r="D37">
+        <v>3.241089141938641</v>
+      </c>
+      <c r="E37">
+        <v>1.12</v>
+      </c>
+      <c r="F37">
+        <v>1.12</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>3.2</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>11.8</v>
+      </c>
+      <c r="K37">
+        <v>2.64</v>
+      </c>
+      <c r="L37">
+        <v>9.16</v>
+      </c>
+      <c r="M37">
+        <v>0.018144</v>
+      </c>
+      <c r="N37">
+        <v>9.141856000000001</v>
+      </c>
+      <c r="O37">
+        <v>2.7425568</v>
+      </c>
+      <c r="P37">
+        <v>6.399299200000001</v>
+      </c>
+      <c r="Q37">
+        <v>9.0392992</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1556910936663965</v>
+      </c>
+      <c r="T37">
+        <v>1.456665548838523</v>
+      </c>
+      <c r="U37">
+        <v>0.0162</v>
+      </c>
+      <c r="V37">
+        <v>0.3</v>
+      </c>
+      <c r="W37">
+        <v>0.01134</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>504.8500881834215</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1048696582209795</v>
+      </c>
+      <c r="C38">
+        <v>2.090278628070368</v>
+      </c>
+      <c r="D38">
+        <v>3.242278628070368</v>
+      </c>
+      <c r="E38">
+        <v>1.152</v>
+      </c>
+      <c r="F38">
+        <v>1.152</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>3.2</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>11.8</v>
+      </c>
+      <c r="K38">
+        <v>2.64</v>
+      </c>
+      <c r="L38">
+        <v>9.16</v>
+      </c>
+      <c r="M38">
+        <v>0.0186624</v>
+      </c>
+      <c r="N38">
+        <v>9.1413376</v>
+      </c>
+      <c r="O38">
+        <v>2.74240128</v>
+      </c>
+      <c r="P38">
+        <v>6.398936320000001</v>
+      </c>
+      <c r="Q38">
+        <v>9.038936320000001</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1574800909702805</v>
+      </c>
+      <c r="T38">
+        <v>1.474466978380893</v>
+      </c>
+      <c r="U38">
+        <v>0.0162</v>
+      </c>
+      <c r="V38">
+        <v>0.3</v>
+      </c>
+      <c r="W38">
+        <v>0.01134</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>490.8264746227709</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1045711055588013</v>
+      </c>
+      <c r="C39">
+        <v>2.059468987610168</v>
+      </c>
+      <c r="D39">
+        <v>3.243468987610167</v>
+      </c>
+      <c r="E39">
+        <v>1.184</v>
+      </c>
+      <c r="F39">
+        <v>1.184</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>3.2</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>11.8</v>
+      </c>
+      <c r="K39">
+        <v>2.64</v>
+      </c>
+      <c r="L39">
+        <v>9.16</v>
+      </c>
+      <c r="M39">
+        <v>0.0191808</v>
+      </c>
+      <c r="N39">
+        <v>9.140819199999999</v>
+      </c>
+      <c r="O39">
+        <v>2.74224576</v>
+      </c>
+      <c r="P39">
+        <v>6.39857344</v>
+      </c>
+      <c r="Q39">
+        <v>9.03857344</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1593258818393672</v>
+      </c>
+      <c r="T39">
+        <v>1.49283353267064</v>
+      </c>
+      <c r="U39">
+        <v>0.0162</v>
+      </c>
+      <c r="V39">
+        <v>0.3</v>
+      </c>
+      <c r="W39">
+        <v>0.01134</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>477.5608942275609</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1042725528966231</v>
+      </c>
+      <c r="C40">
+        <v>2.028660221520374</v>
+      </c>
+      <c r="D40">
+        <v>3.244660221520374</v>
+      </c>
+      <c r="E40">
+        <v>1.216</v>
+      </c>
+      <c r="F40">
+        <v>1.216</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>3.2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>11.8</v>
+      </c>
+      <c r="K40">
+        <v>2.64</v>
+      </c>
+      <c r="L40">
+        <v>9.16</v>
+      </c>
+      <c r="M40">
+        <v>0.0196992</v>
+      </c>
+      <c r="N40">
+        <v>9.1403008</v>
+      </c>
+      <c r="O40">
+        <v>2.74209024</v>
+      </c>
+      <c r="P40">
+        <v>6.398210560000001</v>
+      </c>
+      <c r="Q40">
+        <v>9.038210560000001</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1612312143493922</v>
+      </c>
+      <c r="T40">
+        <v>1.511792556453605</v>
+      </c>
+      <c r="U40">
+        <v>0.0162</v>
+      </c>
+      <c r="V40">
+        <v>0.3</v>
+      </c>
+      <c r="W40">
+        <v>0.01134</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>464.993502274204</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.103974000234445</v>
+      </c>
+      <c r="C41">
+        <v>1.997852330764736</v>
+      </c>
+      <c r="D41">
+        <v>3.245852330764736</v>
+      </c>
+      <c r="E41">
+        <v>1.248</v>
+      </c>
+      <c r="F41">
+        <v>1.248</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>3.2</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>11.8</v>
+      </c>
+      <c r="K41">
+        <v>2.64</v>
+      </c>
+      <c r="L41">
+        <v>9.16</v>
+      </c>
+      <c r="M41">
+        <v>0.0202176</v>
+      </c>
+      <c r="N41">
+        <v>9.1397824</v>
+      </c>
+      <c r="O41">
+        <v>2.74193472</v>
+      </c>
+      <c r="P41">
+        <v>6.39784768</v>
+      </c>
+      <c r="Q41">
+        <v>9.03784768</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1631990167777786</v>
+      </c>
+      <c r="T41">
+        <v>1.531373187573716</v>
+      </c>
+      <c r="U41">
+        <v>0.0162</v>
+      </c>
+      <c r="V41">
+        <v>0.3</v>
+      </c>
+      <c r="W41">
+        <v>0.01134</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>453.0705919594808</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1036754475722668</v>
+      </c>
+      <c r="C42">
+        <v>1.967045316308417</v>
+      </c>
+      <c r="D42">
+        <v>3.247045316308418</v>
+      </c>
+      <c r="E42">
+        <v>1.28</v>
+      </c>
+      <c r="F42">
+        <v>1.28</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>3.2</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>11.8</v>
+      </c>
+      <c r="K42">
+        <v>2.64</v>
+      </c>
+      <c r="L42">
+        <v>9.16</v>
+      </c>
+      <c r="M42">
+        <v>0.020736</v>
+      </c>
+      <c r="N42">
+        <v>9.139264000000001</v>
+      </c>
+      <c r="O42">
+        <v>2.7417792</v>
+      </c>
+      <c r="P42">
+        <v>6.397484800000001</v>
+      </c>
+      <c r="Q42">
+        <v>9.037484800000001</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1652324126204446</v>
+      </c>
+      <c r="T42">
+        <v>1.551606506397831</v>
+      </c>
+      <c r="U42">
+        <v>0.0162</v>
+      </c>
+      <c r="V42">
+        <v>0.3</v>
+      </c>
+      <c r="W42">
+        <v>0.01134</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>441.7438271604938</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1033768949100886</v>
+      </c>
+      <c r="C43">
+        <v>1.936239179118003</v>
+      </c>
+      <c r="D43">
+        <v>3.248239179118003</v>
+      </c>
+      <c r="E43">
+        <v>1.312</v>
+      </c>
+      <c r="F43">
+        <v>1.312</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>3.2</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>11.8</v>
+      </c>
+      <c r="K43">
+        <v>2.64</v>
+      </c>
+      <c r="L43">
+        <v>9.16</v>
+      </c>
+      <c r="M43">
+        <v>0.0212544</v>
+      </c>
+      <c r="N43">
+        <v>9.1387456</v>
+      </c>
+      <c r="O43">
+        <v>2.74162368</v>
+      </c>
+      <c r="P43">
+        <v>6.39712192</v>
+      </c>
+      <c r="Q43">
+        <v>9.037121920000001</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1673347371357434</v>
+      </c>
+      <c r="T43">
+        <v>1.572525700436322</v>
+      </c>
+      <c r="U43">
+        <v>0.0162</v>
+      </c>
+      <c r="V43">
+        <v>0.3</v>
+      </c>
+      <c r="W43">
+        <v>0.01134</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>430.9695874736524</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1030783422479104</v>
+      </c>
+      <c r="C44">
+        <v>1.9054339201615</v>
+      </c>
+      <c r="D44">
+        <v>3.2494339201615</v>
+      </c>
+      <c r="E44">
+        <v>1.344</v>
+      </c>
+      <c r="F44">
+        <v>1.344</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>3.2</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>11.8</v>
+      </c>
+      <c r="K44">
+        <v>2.64</v>
+      </c>
+      <c r="L44">
+        <v>9.16</v>
+      </c>
+      <c r="M44">
+        <v>0.0217728</v>
+      </c>
+      <c r="N44">
+        <v>9.138227199999999</v>
+      </c>
+      <c r="O44">
+        <v>2.74146816</v>
+      </c>
+      <c r="P44">
+        <v>6.396759039999999</v>
+      </c>
+      <c r="Q44">
+        <v>9.03675904</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1695095555998455</v>
+      </c>
+      <c r="T44">
+        <v>1.594166245993383</v>
+      </c>
+      <c r="U44">
+        <v>0.0162</v>
+      </c>
+      <c r="V44">
+        <v>0.3</v>
+      </c>
+      <c r="W44">
+        <v>0.01134</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>420.7084068195178</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1027797895857322</v>
+      </c>
+      <c r="C45">
+        <v>1.874629540408339</v>
+      </c>
+      <c r="D45">
+        <v>3.250629540408339</v>
+      </c>
+      <c r="E45">
+        <v>1.376</v>
+      </c>
+      <c r="F45">
+        <v>1.376</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>3.2</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>11.8</v>
+      </c>
+      <c r="K45">
+        <v>2.64</v>
+      </c>
+      <c r="L45">
+        <v>9.16</v>
+      </c>
+      <c r="M45">
+        <v>0.0222912</v>
+      </c>
+      <c r="N45">
+        <v>9.1377088</v>
+      </c>
+      <c r="O45">
+        <v>2.74131264</v>
+      </c>
+      <c r="P45">
+        <v>6.39639616</v>
+      </c>
+      <c r="Q45">
+        <v>9.036396160000001</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1717606834837407</v>
+      </c>
+      <c r="T45">
+        <v>1.61656610893841</v>
+      </c>
+      <c r="U45">
+        <v>0.0162</v>
+      </c>
+      <c r="V45">
+        <v>0.3</v>
+      </c>
+      <c r="W45">
+        <v>0.01134</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>410.9244903818548</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1024812369235541</v>
+      </c>
+      <c r="C46">
+        <v>1.843826040829378</v>
+      </c>
+      <c r="D46">
+        <v>3.251826040829378</v>
+      </c>
+      <c r="E46">
+        <v>1.408</v>
+      </c>
+      <c r="F46">
+        <v>1.408</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>3.2</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>11.8</v>
+      </c>
+      <c r="K46">
+        <v>2.64</v>
+      </c>
+      <c r="L46">
+        <v>9.16</v>
+      </c>
+      <c r="M46">
+        <v>0.0228096</v>
+      </c>
+      <c r="N46">
+        <v>9.1371904</v>
+      </c>
+      <c r="O46">
+        <v>2.74115712</v>
+      </c>
+      <c r="P46">
+        <v>6.396033279999999</v>
+      </c>
+      <c r="Q46">
+        <v>9.03603328</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1740922087920608</v>
+      </c>
+      <c r="T46">
+        <v>1.639765966988617</v>
+      </c>
+      <c r="U46">
+        <v>0.0162</v>
+      </c>
+      <c r="V46">
+        <v>0.3</v>
+      </c>
+      <c r="W46">
+        <v>0.01134</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>401.5852974186308</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1021826842613759</v>
+      </c>
+      <c r="C47">
+        <v>1.813023422396907</v>
+      </c>
+      <c r="D47">
+        <v>3.253023422396907</v>
+      </c>
+      <c r="E47">
+        <v>1.44</v>
+      </c>
+      <c r="F47">
+        <v>1.44</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>3.2</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>11.8</v>
+      </c>
+      <c r="K47">
+        <v>2.64</v>
+      </c>
+      <c r="L47">
+        <v>9.16</v>
+      </c>
+      <c r="M47">
+        <v>0.023328</v>
+      </c>
+      <c r="N47">
+        <v>9.136672000000001</v>
+      </c>
+      <c r="O47">
+        <v>2.7410016</v>
+      </c>
+      <c r="P47">
+        <v>6.3956704</v>
+      </c>
+      <c r="Q47">
+        <v>9.035670400000001</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1765085168388652</v>
+      </c>
+      <c r="T47">
+        <v>1.663809456240649</v>
+      </c>
+      <c r="U47">
+        <v>0.0162</v>
+      </c>
+      <c r="V47">
+        <v>0.3</v>
+      </c>
+      <c r="W47">
+        <v>0.01134</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>392.6611796982168</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1018841315991977</v>
+      </c>
+      <c r="C48">
+        <v>1.782221686084646</v>
+      </c>
+      <c r="D48">
+        <v>3.254221686084647</v>
+      </c>
+      <c r="E48">
+        <v>1.472</v>
+      </c>
+      <c r="F48">
+        <v>1.472</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>3.2</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>11.8</v>
+      </c>
+      <c r="K48">
+        <v>2.64</v>
+      </c>
+      <c r="L48">
+        <v>9.16</v>
+      </c>
+      <c r="M48">
+        <v>0.0238464</v>
+      </c>
+      <c r="N48">
+        <v>9.1361536</v>
+      </c>
+      <c r="O48">
+        <v>2.74084608</v>
+      </c>
+      <c r="P48">
+        <v>6.39530752</v>
+      </c>
+      <c r="Q48">
+        <v>9.03530752</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.179014317776292</v>
+      </c>
+      <c r="T48">
+        <v>1.688743445094609</v>
+      </c>
+      <c r="U48">
+        <v>0.0162</v>
+      </c>
+      <c r="V48">
+        <v>0.3</v>
+      </c>
+      <c r="W48">
+        <v>0.01134</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>384.1250670960816</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1015855789370195</v>
+      </c>
+      <c r="C49">
+        <v>1.751420832867752</v>
+      </c>
+      <c r="D49">
+        <v>3.255420832867753</v>
+      </c>
+      <c r="E49">
+        <v>1.504</v>
+      </c>
+      <c r="F49">
+        <v>1.504</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>3.2</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>11.8</v>
+      </c>
+      <c r="K49">
+        <v>2.64</v>
+      </c>
+      <c r="L49">
+        <v>9.16</v>
+      </c>
+      <c r="M49">
+        <v>0.0243648</v>
+      </c>
+      <c r="N49">
+        <v>9.135635199999999</v>
+      </c>
+      <c r="O49">
+        <v>2.74069056</v>
+      </c>
+      <c r="P49">
+        <v>6.39494464</v>
+      </c>
+      <c r="Q49">
+        <v>9.034944640000001</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1816146772396595</v>
+      </c>
+      <c r="T49">
+        <v>1.714618339188341</v>
+      </c>
+      <c r="U49">
+        <v>0.0162</v>
+      </c>
+      <c r="V49">
+        <v>0.3</v>
+      </c>
+      <c r="W49">
+        <v>0.01134</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>375.9521933280798</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1012870262748413</v>
+      </c>
+      <c r="C50">
+        <v>1.720620863722819</v>
+      </c>
+      <c r="D50">
+        <v>3.256620863722819</v>
+      </c>
+      <c r="E50">
+        <v>1.536</v>
+      </c>
+      <c r="F50">
+        <v>1.536</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>3.2</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>11.8</v>
+      </c>
+      <c r="K50">
+        <v>2.64</v>
+      </c>
+      <c r="L50">
+        <v>9.16</v>
+      </c>
+      <c r="M50">
+        <v>0.0248832</v>
+      </c>
+      <c r="N50">
+        <v>9.1351168</v>
+      </c>
+      <c r="O50">
+        <v>2.74053504</v>
+      </c>
+      <c r="P50">
+        <v>6.39458176</v>
+      </c>
+      <c r="Q50">
+        <v>9.03458176</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.184315050528541</v>
+      </c>
+      <c r="T50">
+        <v>1.741488421516447</v>
+      </c>
+      <c r="U50">
+        <v>0.0162</v>
+      </c>
+      <c r="V50">
+        <v>0.3</v>
+      </c>
+      <c r="W50">
+        <v>0.01134</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>368.1198559670783</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1009884736126631</v>
+      </c>
+      <c r="C51">
+        <v>1.689821779627882</v>
+      </c>
+      <c r="D51">
+        <v>3.257821779627882</v>
+      </c>
+      <c r="E51">
+        <v>1.568</v>
+      </c>
+      <c r="F51">
+        <v>1.568</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>3.2</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>11.8</v>
+      </c>
+      <c r="K51">
+        <v>2.64</v>
+      </c>
+      <c r="L51">
+        <v>9.16</v>
+      </c>
+      <c r="M51">
+        <v>0.0254016</v>
+      </c>
+      <c r="N51">
+        <v>9.1345984</v>
+      </c>
+      <c r="O51">
+        <v>2.74037952</v>
+      </c>
+      <c r="P51">
+        <v>6.39421888</v>
+      </c>
+      <c r="Q51">
+        <v>9.034218880000001</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1871213208091434</v>
+      </c>
+      <c r="T51">
+        <v>1.769412232563302</v>
+      </c>
+      <c r="U51">
+        <v>0.0162</v>
+      </c>
+      <c r="V51">
+        <v>0.3</v>
+      </c>
+      <c r="W51">
+        <v>0.01134</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>360.6072058453011</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1006899209504849</v>
+      </c>
+      <c r="C52">
+        <v>1.659023581562417</v>
+      </c>
+      <c r="D52">
+        <v>3.259023581562417</v>
+      </c>
+      <c r="E52">
+        <v>1.6</v>
+      </c>
+      <c r="F52">
+        <v>1.6</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>3.2</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>11.8</v>
+      </c>
+      <c r="K52">
+        <v>2.64</v>
+      </c>
+      <c r="L52">
+        <v>9.16</v>
+      </c>
+      <c r="M52">
+        <v>0.02592</v>
+      </c>
+      <c r="N52">
+        <v>9.134080000000001</v>
+      </c>
+      <c r="O52">
+        <v>2.740224</v>
+      </c>
+      <c r="P52">
+        <v>6.393856000000001</v>
+      </c>
+      <c r="Q52">
+        <v>9.033856000000002</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1900398419009699</v>
+      </c>
+      <c r="T52">
+        <v>1.798452996052031</v>
+      </c>
+      <c r="U52">
+        <v>0.0162</v>
+      </c>
+      <c r="V52">
+        <v>0.3</v>
+      </c>
+      <c r="W52">
+        <v>0.01134</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>353.3950617283951</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1003913682883068</v>
+      </c>
+      <c r="C53">
+        <v>1.628226270507349</v>
+      </c>
+      <c r="D53">
+        <v>3.260226270507349</v>
+      </c>
+      <c r="E53">
+        <v>1.632</v>
+      </c>
+      <c r="F53">
+        <v>1.632</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>3.2</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>11.8</v>
+      </c>
+      <c r="K53">
+        <v>2.64</v>
+      </c>
+      <c r="L53">
+        <v>9.16</v>
+      </c>
+      <c r="M53">
+        <v>0.0264384</v>
+      </c>
+      <c r="N53">
+        <v>9.1335616</v>
+      </c>
+      <c r="O53">
+        <v>2.74006848</v>
+      </c>
+      <c r="P53">
+        <v>6.39349312</v>
+      </c>
+      <c r="Q53">
+        <v>9.033493120000001</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1930774863026669</v>
+      </c>
+      <c r="T53">
+        <v>1.828679096826015</v>
+      </c>
+      <c r="U53">
+        <v>0.0162</v>
+      </c>
+      <c r="V53">
+        <v>0.3</v>
+      </c>
+      <c r="W53">
+        <v>0.01134</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>346.4657467925442</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1000928156261286</v>
+      </c>
+      <c r="C54">
+        <v>1.597429847445051</v>
+      </c>
+      <c r="D54">
+        <v>3.261429847445052</v>
+      </c>
+      <c r="E54">
+        <v>1.664</v>
+      </c>
+      <c r="F54">
+        <v>1.664</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>3.2</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>11.8</v>
+      </c>
+      <c r="K54">
+        <v>2.64</v>
+      </c>
+      <c r="L54">
+        <v>9.16</v>
+      </c>
+      <c r="M54">
+        <v>0.0269568</v>
+      </c>
+      <c r="N54">
+        <v>9.133043199999999</v>
+      </c>
+      <c r="O54">
+        <v>2.73991296</v>
+      </c>
+      <c r="P54">
+        <v>6.39313024</v>
+      </c>
+      <c r="Q54">
+        <v>9.03313024</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1962416992211012</v>
+      </c>
+      <c r="T54">
+        <v>1.860164618465581</v>
+      </c>
+      <c r="U54">
+        <v>0.0162</v>
+      </c>
+      <c r="V54">
+        <v>0.3</v>
+      </c>
+      <c r="W54">
+        <v>0.01134</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>339.8029439696106</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.09979426296395041</v>
+      </c>
+      <c r="C55">
+        <v>1.566634313359346</v>
+      </c>
+      <c r="D55">
+        <v>3.262634313359346</v>
+      </c>
+      <c r="E55">
+        <v>1.696</v>
+      </c>
+      <c r="F55">
+        <v>1.696</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>3.2</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>11.8</v>
+      </c>
+      <c r="K55">
+        <v>2.64</v>
+      </c>
+      <c r="L55">
+        <v>9.16</v>
+      </c>
+      <c r="M55">
+        <v>0.0274752</v>
+      </c>
+      <c r="N55">
+        <v>9.132524800000001</v>
+      </c>
+      <c r="O55">
+        <v>2.73975744</v>
+      </c>
+      <c r="P55">
+        <v>6.392767360000001</v>
+      </c>
+      <c r="Q55">
+        <v>9.032767360000001</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1995405594977668</v>
+      </c>
+      <c r="T55">
+        <v>1.892989949536619</v>
+      </c>
+      <c r="U55">
+        <v>0.0162</v>
+      </c>
+      <c r="V55">
+        <v>0.3</v>
+      </c>
+      <c r="W55">
+        <v>0.01134</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>333.3915676682972</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.09949571030177223</v>
+      </c>
+      <c r="C56">
+        <v>1.535839669235511</v>
+      </c>
+      <c r="D56">
+        <v>3.263839669235511</v>
+      </c>
+      <c r="E56">
+        <v>1.728</v>
+      </c>
+      <c r="F56">
+        <v>1.728</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>3.2</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>11.8</v>
+      </c>
+      <c r="K56">
+        <v>2.64</v>
+      </c>
+      <c r="L56">
+        <v>9.16</v>
+      </c>
+      <c r="M56">
+        <v>0.0279936</v>
+      </c>
+      <c r="N56">
+        <v>9.1320064</v>
+      </c>
+      <c r="O56">
+        <v>2.73960192</v>
+      </c>
+      <c r="P56">
+        <v>6.39240448</v>
+      </c>
+      <c r="Q56">
+        <v>9.03240448</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.2029828484821135</v>
+      </c>
+      <c r="T56">
+        <v>1.927242468915092</v>
+      </c>
+      <c r="U56">
+        <v>0.0162</v>
+      </c>
+      <c r="V56">
+        <v>0.3</v>
+      </c>
+      <c r="W56">
+        <v>0.01134</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>327.217649748514</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.09919715763959405</v>
+      </c>
+      <c r="C57">
+        <v>1.50504591606028</v>
+      </c>
+      <c r="D57">
+        <v>3.26504591606028</v>
+      </c>
+      <c r="E57">
+        <v>1.76</v>
+      </c>
+      <c r="F57">
+        <v>1.76</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>3.2</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>11.8</v>
+      </c>
+      <c r="K57">
+        <v>2.64</v>
+      </c>
+      <c r="L57">
+        <v>9.16</v>
+      </c>
+      <c r="M57">
+        <v>0.028512</v>
+      </c>
+      <c r="N57">
+        <v>9.131488000000001</v>
+      </c>
+      <c r="O57">
+        <v>2.7394464</v>
+      </c>
+      <c r="P57">
+        <v>6.392041600000001</v>
+      </c>
+      <c r="Q57">
+        <v>9.032041600000001</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.2065781280879868</v>
+      </c>
+      <c r="T57">
+        <v>1.963017322488165</v>
+      </c>
+      <c r="U57">
+        <v>0.0162</v>
+      </c>
+      <c r="V57">
+        <v>0.3</v>
+      </c>
+      <c r="W57">
+        <v>0.01134</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>321.2682379349046</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.09889860497741587</v>
+      </c>
+      <c r="C58">
+        <v>1.474253054821845</v>
+      </c>
+      <c r="D58">
+        <v>3.266253054821846</v>
+      </c>
+      <c r="E58">
+        <v>1.792</v>
+      </c>
+      <c r="F58">
+        <v>1.792</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>3.2</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>11.8</v>
+      </c>
+      <c r="K58">
+        <v>2.64</v>
+      </c>
+      <c r="L58">
+        <v>9.16</v>
+      </c>
+      <c r="M58">
+        <v>0.0290304</v>
+      </c>
+      <c r="N58">
+        <v>9.1309696</v>
+      </c>
+      <c r="O58">
+        <v>2.73929088</v>
+      </c>
+      <c r="P58">
+        <v>6.39167872</v>
+      </c>
+      <c r="Q58">
+        <v>9.03167872</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.210336829494127</v>
+      </c>
+      <c r="T58">
+        <v>2.000418305769105</v>
+      </c>
+      <c r="U58">
+        <v>0.0162</v>
+      </c>
+      <c r="V58">
+        <v>0.3</v>
+      </c>
+      <c r="W58">
+        <v>0.01134</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>315.5313051146384</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.09860005231523766</v>
+      </c>
+      <c r="C59">
+        <v>1.443461086509863</v>
+      </c>
+      <c r="D59">
+        <v>3.267461086509864</v>
+      </c>
+      <c r="E59">
+        <v>1.824</v>
+      </c>
+      <c r="F59">
+        <v>1.824</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>3.2</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>11.8</v>
+      </c>
+      <c r="K59">
+        <v>2.64</v>
+      </c>
+      <c r="L59">
+        <v>9.16</v>
+      </c>
+      <c r="M59">
+        <v>0.0295488</v>
+      </c>
+      <c r="N59">
+        <v>9.1304512</v>
+      </c>
+      <c r="O59">
+        <v>2.73913536</v>
+      </c>
+      <c r="P59">
+        <v>6.39131584</v>
+      </c>
+      <c r="Q59">
+        <v>9.03131584</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.214270354221483</v>
+      </c>
+      <c r="T59">
+        <v>2.039558869667762</v>
+      </c>
+      <c r="U59">
+        <v>0.0162</v>
+      </c>
+      <c r="V59">
+        <v>0.3</v>
+      </c>
+      <c r="W59">
+        <v>0.01134</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>309.9956681828027</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.09830149965305951</v>
+      </c>
+      <c r="C60">
+        <v>1.412670012115453</v>
+      </c>
+      <c r="D60">
+        <v>3.268670012115453</v>
+      </c>
+      <c r="E60">
+        <v>1.856</v>
+      </c>
+      <c r="F60">
+        <v>1.856</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>3.2</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>11.8</v>
+      </c>
+      <c r="K60">
+        <v>2.64</v>
+      </c>
+      <c r="L60">
+        <v>9.16</v>
+      </c>
+      <c r="M60">
+        <v>0.0300672</v>
+      </c>
+      <c r="N60">
+        <v>9.129932800000001</v>
+      </c>
+      <c r="O60">
+        <v>2.73897984</v>
+      </c>
+      <c r="P60">
+        <v>6.39095296</v>
+      </c>
+      <c r="Q60">
+        <v>9.03095296</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.2183911896501416</v>
+      </c>
+      <c r="T60">
+        <v>2.080563269942546</v>
+      </c>
+      <c r="U60">
+        <v>0.0162</v>
+      </c>
+      <c r="V60">
+        <v>0.3</v>
+      </c>
+      <c r="W60">
+        <v>0.01134</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>304.6509152830993</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.09800294699088132</v>
+      </c>
+      <c r="C61">
+        <v>1.381879832631201</v>
+      </c>
+      <c r="D61">
+        <v>3.269879832631201</v>
+      </c>
+      <c r="E61">
+        <v>1.888</v>
+      </c>
+      <c r="F61">
+        <v>1.888</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>3.2</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>11.8</v>
+      </c>
+      <c r="K61">
+        <v>2.64</v>
+      </c>
+      <c r="L61">
+        <v>9.16</v>
+      </c>
+      <c r="M61">
+        <v>0.0305856</v>
+      </c>
+      <c r="N61">
+        <v>9.1294144</v>
+      </c>
+      <c r="O61">
+        <v>2.73882432</v>
+      </c>
+      <c r="P61">
+        <v>6.39059008</v>
+      </c>
+      <c r="Q61">
+        <v>9.03059008</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.2227130414411739</v>
+      </c>
+      <c r="T61">
+        <v>2.12356788486488</v>
+      </c>
+      <c r="U61">
+        <v>0.0162</v>
+      </c>
+      <c r="V61">
+        <v>0.3</v>
+      </c>
+      <c r="W61">
+        <v>0.01134</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>299.4873404477925</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.09770439432870315</v>
+      </c>
+      <c r="C62">
+        <v>1.351090549051165</v>
+      </c>
+      <c r="D62">
+        <v>3.271090549051165</v>
+      </c>
+      <c r="E62">
+        <v>1.92</v>
+      </c>
+      <c r="F62">
+        <v>1.92</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>3.2</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>11.8</v>
+      </c>
+      <c r="K62">
+        <v>2.64</v>
+      </c>
+      <c r="L62">
+        <v>9.16</v>
+      </c>
+      <c r="M62">
+        <v>0.031104</v>
+      </c>
+      <c r="N62">
+        <v>9.128896000000001</v>
+      </c>
+      <c r="O62">
+        <v>2.7386688</v>
+      </c>
+      <c r="P62">
+        <v>6.390227200000001</v>
+      </c>
+      <c r="Q62">
+        <v>9.030227200000001</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.2272509858217578</v>
+      </c>
+      <c r="T62">
+        <v>2.168722730533332</v>
+      </c>
+      <c r="U62">
+        <v>0.0162</v>
+      </c>
+      <c r="V62">
+        <v>0.3</v>
+      </c>
+      <c r="W62">
+        <v>0.01134</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>294.4958847736626</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.09740584166652495</v>
+      </c>
+      <c r="C63">
+        <v>1.320302162370875</v>
+      </c>
+      <c r="D63">
+        <v>3.272302162370875</v>
+      </c>
+      <c r="E63">
+        <v>1.952</v>
+      </c>
+      <c r="F63">
+        <v>1.952</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>3.2</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>11.8</v>
+      </c>
+      <c r="K63">
+        <v>2.64</v>
+      </c>
+      <c r="L63">
+        <v>9.16</v>
+      </c>
+      <c r="M63">
+        <v>0.03162239999999999</v>
+      </c>
+      <c r="N63">
+        <v>9.1283776</v>
+      </c>
+      <c r="O63">
+        <v>2.73851328</v>
+      </c>
+      <c r="P63">
+        <v>6.389864320000001</v>
+      </c>
+      <c r="Q63">
+        <v>9.029864320000001</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.2320216452987819</v>
+      </c>
+      <c r="T63">
+        <v>2.216193209312986</v>
+      </c>
+      <c r="U63">
+        <v>0.0162</v>
+      </c>
+      <c r="V63">
+        <v>0.3</v>
+      </c>
+      <c r="W63">
+        <v>0.01134</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>289.6680833839304</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.09710728900434676</v>
+      </c>
+      <c r="C64">
+        <v>1.289514673587336</v>
+      </c>
+      <c r="D64">
+        <v>3.273514673587336</v>
+      </c>
+      <c r="E64">
+        <v>1.984</v>
+      </c>
+      <c r="F64">
+        <v>1.984</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>3.2</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>11.8</v>
+      </c>
+      <c r="K64">
+        <v>2.64</v>
+      </c>
+      <c r="L64">
+        <v>9.16</v>
+      </c>
+      <c r="M64">
+        <v>0.0321408</v>
+      </c>
+      <c r="N64">
+        <v>9.1278592</v>
+      </c>
+      <c r="O64">
+        <v>2.73835776</v>
+      </c>
+      <c r="P64">
+        <v>6.38950144</v>
+      </c>
+      <c r="Q64">
+        <v>9.029501440000001</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.237043392116702</v>
+      </c>
+      <c r="T64">
+        <v>2.2661621343442</v>
+      </c>
+      <c r="U64">
+        <v>0.0162</v>
+      </c>
+      <c r="V64">
+        <v>0.3</v>
+      </c>
+      <c r="W64">
+        <v>0.01134</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>284.9960175228993</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.09680873634216861</v>
+      </c>
+      <c r="C65">
+        <v>1.258728083699031</v>
+      </c>
+      <c r="D65">
+        <v>3.274728083699031</v>
+      </c>
+      <c r="E65">
+        <v>2.016</v>
+      </c>
+      <c r="F65">
+        <v>2.016</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>3.2</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>11.8</v>
+      </c>
+      <c r="K65">
+        <v>2.64</v>
+      </c>
+      <c r="L65">
+        <v>9.16</v>
+      </c>
+      <c r="M65">
+        <v>0.0326592</v>
+      </c>
+      <c r="N65">
+        <v>9.127340800000001</v>
+      </c>
+      <c r="O65">
+        <v>2.73820224</v>
+      </c>
+      <c r="P65">
+        <v>6.389138560000001</v>
+      </c>
+      <c r="Q65">
+        <v>9.029138560000002</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.2423365847085638</v>
+      </c>
+      <c r="T65">
+        <v>2.318832082350076</v>
+      </c>
+      <c r="U65">
+        <v>0.0162</v>
+      </c>
+      <c r="V65">
+        <v>0.3</v>
+      </c>
+      <c r="W65">
+        <v>0.01134</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>280.472271213012</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.09651018367999041</v>
+      </c>
+      <c r="C66">
+        <v>1.227942393705926</v>
+      </c>
+      <c r="D66">
+        <v>3.275942393705926</v>
+      </c>
+      <c r="E66">
+        <v>2.048</v>
+      </c>
+      <c r="F66">
+        <v>2.048</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>3.2</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>11.8</v>
+      </c>
+      <c r="K66">
+        <v>2.64</v>
+      </c>
+      <c r="L66">
+        <v>9.16</v>
+      </c>
+      <c r="M66">
+        <v>0.0331776</v>
+      </c>
+      <c r="N66">
+        <v>9.1268224</v>
+      </c>
+      <c r="O66">
+        <v>2.73804672</v>
+      </c>
+      <c r="P66">
+        <v>6.38877568</v>
+      </c>
+      <c r="Q66">
+        <v>9.028775680000001</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.2479238435555289</v>
+      </c>
+      <c r="T66">
+        <v>2.374428138578499</v>
+      </c>
+      <c r="U66">
+        <v>0.0162</v>
+      </c>
+      <c r="V66">
+        <v>0.3</v>
+      </c>
+      <c r="W66">
+        <v>0.01134</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>276.0898919753086</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.09621163101781222</v>
+      </c>
+      <c r="C67">
+        <v>1.197157604609469</v>
+      </c>
+      <c r="D67">
+        <v>3.277157604609469</v>
+      </c>
+      <c r="E67">
+        <v>2.08</v>
+      </c>
+      <c r="F67">
+        <v>2.08</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>3.2</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>11.8</v>
+      </c>
+      <c r="K67">
+        <v>2.64</v>
+      </c>
+      <c r="L67">
+        <v>9.16</v>
+      </c>
+      <c r="M67">
+        <v>0.033696</v>
+      </c>
+      <c r="N67">
+        <v>9.126303999999999</v>
+      </c>
+      <c r="O67">
+        <v>2.7378912</v>
+      </c>
+      <c r="P67">
+        <v>6.388412799999999</v>
+      </c>
+      <c r="Q67">
+        <v>9.0284128</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.2538303743366063</v>
+      </c>
+      <c r="T67">
+        <v>2.433201112305689</v>
+      </c>
+      <c r="U67">
+        <v>0.0162</v>
+      </c>
+      <c r="V67">
+        <v>0.3</v>
+      </c>
+      <c r="W67">
+        <v>0.01134</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>271.8423551756885</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.09591307835563403</v>
+      </c>
+      <c r="C68">
+        <v>1.166373717412595</v>
+      </c>
+      <c r="D68">
+        <v>3.278373717412595</v>
+      </c>
+      <c r="E68">
+        <v>2.112</v>
+      </c>
+      <c r="F68">
+        <v>2.112</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>3.2</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>11.8</v>
+      </c>
+      <c r="K68">
+        <v>2.64</v>
+      </c>
+      <c r="L68">
+        <v>9.16</v>
+      </c>
+      <c r="M68">
+        <v>0.0342144</v>
+      </c>
+      <c r="N68">
+        <v>9.1257856</v>
+      </c>
+      <c r="O68">
+        <v>2.73773568</v>
+      </c>
+      <c r="P68">
+        <v>6.38804992</v>
+      </c>
+      <c r="Q68">
+        <v>9.028049920000001</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.260084348104806</v>
+      </c>
+      <c r="T68">
+        <v>2.495431319781539</v>
+      </c>
+      <c r="U68">
+        <v>0.0162</v>
+      </c>
+      <c r="V68">
+        <v>0.3</v>
+      </c>
+      <c r="W68">
+        <v>0.01134</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>267.7235316124205</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.09561452569345584</v>
+      </c>
+      <c r="C69">
+        <v>1.135590733119729</v>
+      </c>
+      <c r="D69">
+        <v>3.279590733119729</v>
+      </c>
+      <c r="E69">
+        <v>2.144</v>
+      </c>
+      <c r="F69">
+        <v>2.144</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>3.2</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>11.8</v>
+      </c>
+      <c r="K69">
+        <v>2.64</v>
+      </c>
+      <c r="L69">
+        <v>9.16</v>
+      </c>
+      <c r="M69">
+        <v>0.0347328</v>
+      </c>
+      <c r="N69">
+        <v>9.1252672</v>
+      </c>
+      <c r="O69">
+        <v>2.73758016</v>
+      </c>
+      <c r="P69">
+        <v>6.387687039999999</v>
+      </c>
+      <c r="Q69">
+        <v>9.02768704</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.2667173505862299</v>
+      </c>
+      <c r="T69">
+        <v>2.561433054983196</v>
+      </c>
+      <c r="U69">
+        <v>0.0162</v>
+      </c>
+      <c r="V69">
+        <v>0.3</v>
+      </c>
+      <c r="W69">
+        <v>0.01134</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>263.727658006265</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.09531597303127767</v>
+      </c>
+      <c r="C70">
+        <v>1.104808652736785</v>
+      </c>
+      <c r="D70">
+        <v>3.280808652736785</v>
+      </c>
+      <c r="E70">
+        <v>2.176</v>
+      </c>
+      <c r="F70">
+        <v>2.176</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>3.2</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>11.8</v>
+      </c>
+      <c r="K70">
+        <v>2.64</v>
+      </c>
+      <c r="L70">
+        <v>9.16</v>
+      </c>
+      <c r="M70">
+        <v>0.0352512</v>
+      </c>
+      <c r="N70">
+        <v>9.124748800000001</v>
+      </c>
+      <c r="O70">
+        <v>2.73742464</v>
+      </c>
+      <c r="P70">
+        <v>6.38732416</v>
+      </c>
+      <c r="Q70">
+        <v>9.027324160000001</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.2737649157227428</v>
+      </c>
+      <c r="T70">
+        <v>2.631559898634958</v>
+      </c>
+      <c r="U70">
+        <v>0.0162</v>
+      </c>
+      <c r="V70">
+        <v>0.3</v>
+      </c>
+      <c r="W70">
+        <v>0.01134</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>259.8493100944081</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.09501742036909949</v>
+      </c>
+      <c r="C71">
+        <v>1.074027477271175</v>
+      </c>
+      <c r="D71">
+        <v>3.282027477271175</v>
+      </c>
+      <c r="E71">
+        <v>2.208</v>
+      </c>
+      <c r="F71">
+        <v>2.208</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>3.2</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>11.8</v>
+      </c>
+      <c r="K71">
+        <v>2.64</v>
+      </c>
+      <c r="L71">
+        <v>9.16</v>
+      </c>
+      <c r="M71">
+        <v>0.0357696</v>
+      </c>
+      <c r="N71">
+        <v>9.1242304</v>
+      </c>
+      <c r="O71">
+        <v>2.73726912</v>
+      </c>
+      <c r="P71">
+        <v>6.38696128</v>
+      </c>
+      <c r="Q71">
+        <v>9.02696128</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.2812671624809662</v>
+      </c>
+      <c r="T71">
+        <v>2.706211054780382</v>
+      </c>
+      <c r="U71">
+        <v>0.0162</v>
+      </c>
+      <c r="V71">
+        <v>0.3</v>
+      </c>
+      <c r="W71">
+        <v>0.01134</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>256.0833780640544</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.0947188677069213</v>
+      </c>
+      <c r="C72">
+        <v>1.043247207731809</v>
+      </c>
+      <c r="D72">
+        <v>3.283247207731809</v>
+      </c>
+      <c r="E72">
+        <v>2.24</v>
+      </c>
+      <c r="F72">
+        <v>2.24</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>3.2</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>11.8</v>
+      </c>
+      <c r="K72">
+        <v>2.64</v>
+      </c>
+      <c r="L72">
+        <v>9.16</v>
+      </c>
+      <c r="M72">
+        <v>0.036288</v>
+      </c>
+      <c r="N72">
+        <v>9.123711999999999</v>
+      </c>
+      <c r="O72">
+        <v>2.7371136</v>
+      </c>
+      <c r="P72">
+        <v>6.3865984</v>
+      </c>
+      <c r="Q72">
+        <v>9.026598399999999</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.2892695590230711</v>
+      </c>
+      <c r="T72">
+        <v>2.785838954668833</v>
+      </c>
+      <c r="U72">
+        <v>0.0162</v>
+      </c>
+      <c r="V72">
+        <v>0.3</v>
+      </c>
+      <c r="W72">
+        <v>0.01134</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>252.4250440917107</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.09442031504474313</v>
+      </c>
+      <c r="C73">
+        <v>1.012467845129094</v>
+      </c>
+      <c r="D73">
+        <v>3.284467845129094</v>
+      </c>
+      <c r="E73">
+        <v>2.272</v>
+      </c>
+      <c r="F73">
+        <v>2.272</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>3.2</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>11.8</v>
+      </c>
+      <c r="K73">
+        <v>2.64</v>
+      </c>
+      <c r="L73">
+        <v>9.16</v>
+      </c>
+      <c r="M73">
+        <v>0.0368064</v>
+      </c>
+      <c r="N73">
+        <v>9.1231936</v>
+      </c>
+      <c r="O73">
+        <v>2.73695808</v>
+      </c>
+      <c r="P73">
+        <v>6.38623552</v>
+      </c>
+      <c r="Q73">
+        <v>9.02623552</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.2978238449818728</v>
+      </c>
+      <c r="T73">
+        <v>2.870958433859936</v>
+      </c>
+      <c r="U73">
+        <v>0.0162</v>
+      </c>
+      <c r="V73">
+        <v>0.3</v>
+      </c>
+      <c r="W73">
+        <v>0.01134</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>248.8697617805599</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.09412176238256496</v>
+      </c>
+      <c r="C74">
+        <v>0.9816893904749437</v>
+      </c>
+      <c r="D74">
+        <v>3.285689390474944</v>
+      </c>
+      <c r="E74">
+        <v>2.304</v>
+      </c>
+      <c r="F74">
+        <v>2.304</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>3.2</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>11.8</v>
+      </c>
+      <c r="K74">
+        <v>2.64</v>
+      </c>
+      <c r="L74">
+        <v>9.16</v>
+      </c>
+      <c r="M74">
+        <v>0.0373248</v>
+      </c>
+      <c r="N74">
+        <v>9.1226752</v>
+      </c>
+      <c r="O74">
+        <v>2.73680256</v>
+      </c>
+      <c r="P74">
+        <v>6.385872640000001</v>
+      </c>
+      <c r="Q74">
+        <v>9.025872640000001</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.3069891513663034</v>
+      </c>
+      <c r="T74">
+        <v>2.962157875850405</v>
+      </c>
+      <c r="U74">
+        <v>0.0162</v>
+      </c>
+      <c r="V74">
+        <v>0.3</v>
+      </c>
+      <c r="W74">
+        <v>0.01134</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>245.4132373113855</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.09382320972038675</v>
+      </c>
+      <c r="C75">
+        <v>0.9509118447827749</v>
+      </c>
+      <c r="D75">
+        <v>3.286911844782775</v>
+      </c>
+      <c r="E75">
+        <v>2.336</v>
+      </c>
+      <c r="F75">
+        <v>2.336</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>3.2</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>11.8</v>
+      </c>
+      <c r="K75">
+        <v>2.64</v>
+      </c>
+      <c r="L75">
+        <v>9.16</v>
+      </c>
+      <c r="M75">
+        <v>0.03784319999999999</v>
+      </c>
+      <c r="N75">
+        <v>9.122156800000001</v>
+      </c>
+      <c r="O75">
+        <v>2.73664704</v>
+      </c>
+      <c r="P75">
+        <v>6.385509760000001</v>
+      </c>
+      <c r="Q75">
+        <v>9.02550976</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.3168333693347657</v>
+      </c>
+      <c r="T75">
+        <v>3.060112832062388</v>
+      </c>
+      <c r="U75">
+        <v>0.0162</v>
+      </c>
+      <c r="V75">
+        <v>0.3</v>
+      </c>
+      <c r="W75">
+        <v>0.01134</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>242.0514121427364</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.09352465705820857</v>
+      </c>
+      <c r="C76">
+        <v>0.9201352090675146</v>
+      </c>
+      <c r="D76">
+        <v>3.288135209067514</v>
+      </c>
+      <c r="E76">
+        <v>2.368</v>
+      </c>
+      <c r="F76">
+        <v>2.368</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>3.2</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>11.8</v>
+      </c>
+      <c r="K76">
+        <v>2.64</v>
+      </c>
+      <c r="L76">
+        <v>9.16</v>
+      </c>
+      <c r="M76">
+        <v>0.0383616</v>
+      </c>
+      <c r="N76">
+        <v>9.1216384</v>
+      </c>
+      <c r="O76">
+        <v>2.73649152</v>
+      </c>
+      <c r="P76">
+        <v>6.385146880000001</v>
+      </c>
+      <c r="Q76">
+        <v>9.025146880000001</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.3274348348392637</v>
+      </c>
+      <c r="T76">
+        <v>3.165602784906064</v>
+      </c>
+      <c r="U76">
+        <v>0.0162</v>
+      </c>
+      <c r="V76">
+        <v>0.3</v>
+      </c>
+      <c r="W76">
+        <v>0.01134</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>238.7804471137805</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.09322610439603039</v>
+      </c>
+      <c r="C77">
+        <v>0.8893594843456012</v>
+      </c>
+      <c r="D77">
+        <v>3.289359484345602</v>
+      </c>
+      <c r="E77">
+        <v>2.4</v>
+      </c>
+      <c r="F77">
+        <v>2.4</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>3.2</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>11.8</v>
+      </c>
+      <c r="K77">
+        <v>2.64</v>
+      </c>
+      <c r="L77">
+        <v>9.16</v>
+      </c>
+      <c r="M77">
+        <v>0.03888</v>
+      </c>
+      <c r="N77">
+        <v>9.121119999999999</v>
+      </c>
+      <c r="O77">
+        <v>2.736336</v>
+      </c>
+      <c r="P77">
+        <v>6.384784</v>
+      </c>
+      <c r="Q77">
+        <v>9.024784</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.3388844175841216</v>
+      </c>
+      <c r="T77">
+        <v>3.279531933977233</v>
+      </c>
+      <c r="U77">
+        <v>0.0162</v>
+      </c>
+      <c r="V77">
+        <v>0.3</v>
+      </c>
+      <c r="W77">
+        <v>0.01134</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>235.59670781893</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.09292755173385221</v>
+      </c>
+      <c r="C78">
+        <v>0.8585846716349881</v>
+      </c>
+      <c r="D78">
+        <v>3.290584671634988</v>
+      </c>
+      <c r="E78">
+        <v>2.432</v>
+      </c>
+      <c r="F78">
+        <v>2.432</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>3.2</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>11.8</v>
+      </c>
+      <c r="K78">
+        <v>2.64</v>
+      </c>
+      <c r="L78">
+        <v>9.16</v>
+      </c>
+      <c r="M78">
+        <v>0.03939840000000001</v>
+      </c>
+      <c r="N78">
+        <v>9.120601600000001</v>
+      </c>
+      <c r="O78">
+        <v>2.73618048</v>
+      </c>
+      <c r="P78">
+        <v>6.384421120000001</v>
+      </c>
+      <c r="Q78">
+        <v>9.024421120000001</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.3512881322243843</v>
+      </c>
+      <c r="T78">
+        <v>3.402955178804334</v>
+      </c>
+      <c r="U78">
+        <v>0.0162</v>
+      </c>
+      <c r="V78">
+        <v>0.3</v>
+      </c>
+      <c r="W78">
+        <v>0.01134</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>232.496751137102</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.09262899907167403</v>
+      </c>
+      <c r="C79">
+        <v>0.8278107719551446</v>
+      </c>
+      <c r="D79">
+        <v>3.291810771955145</v>
+      </c>
+      <c r="E79">
+        <v>2.464</v>
+      </c>
+      <c r="F79">
+        <v>2.464</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>3.2</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>11.8</v>
+      </c>
+      <c r="K79">
+        <v>2.64</v>
+      </c>
+      <c r="L79">
+        <v>9.16</v>
+      </c>
+      <c r="M79">
+        <v>0.0399168</v>
+      </c>
+      <c r="N79">
+        <v>9.1200832</v>
+      </c>
+      <c r="O79">
+        <v>2.73602496</v>
+      </c>
+      <c r="P79">
+        <v>6.38405824</v>
+      </c>
+      <c r="Q79">
+        <v>9.02405824</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.3647704307464089</v>
+      </c>
+      <c r="T79">
+        <v>3.537110879703356</v>
+      </c>
+      <c r="U79">
+        <v>0.0162</v>
+      </c>
+      <c r="V79">
+        <v>0.3</v>
+      </c>
+      <c r="W79">
+        <v>0.01134</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>229.4773128106461</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.09233044640949585</v>
+      </c>
+      <c r="C80">
+        <v>0.7970377863270603</v>
+      </c>
+      <c r="D80">
+        <v>3.293037786327061</v>
+      </c>
+      <c r="E80">
+        <v>2.496</v>
+      </c>
+      <c r="F80">
+        <v>2.496</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>3.2</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>11.8</v>
+      </c>
+      <c r="K80">
+        <v>2.64</v>
+      </c>
+      <c r="L80">
+        <v>9.16</v>
+      </c>
+      <c r="M80">
+        <v>0.0404352</v>
+      </c>
+      <c r="N80">
+        <v>9.119564800000001</v>
+      </c>
+      <c r="O80">
+        <v>2.73586944</v>
+      </c>
+      <c r="P80">
+        <v>6.383695360000001</v>
+      </c>
+      <c r="Q80">
+        <v>9.023695360000001</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.3794783927704357</v>
+      </c>
+      <c r="T80">
+        <v>3.68346255341138</v>
+      </c>
+      <c r="U80">
+        <v>0.0162</v>
+      </c>
+      <c r="V80">
+        <v>0.3</v>
+      </c>
+      <c r="W80">
+        <v>0.01134</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>226.5352959797404</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.09203189374731766</v>
+      </c>
+      <c r="C81">
+        <v>0.7662657157732493</v>
+      </c>
+      <c r="D81">
+        <v>3.29426571577325</v>
+      </c>
+      <c r="E81">
+        <v>2.528</v>
+      </c>
+      <c r="F81">
+        <v>2.528</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>3.2</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>11.8</v>
+      </c>
+      <c r="K81">
+        <v>2.64</v>
+      </c>
+      <c r="L81">
+        <v>9.16</v>
+      </c>
+      <c r="M81">
+        <v>0.04095360000000001</v>
+      </c>
+      <c r="N81">
+        <v>9.1190464</v>
+      </c>
+      <c r="O81">
+        <v>2.73571392</v>
+      </c>
+      <c r="P81">
+        <v>6.38333248</v>
+      </c>
+      <c r="Q81">
+        <v>9.023332480000001</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.3955871130824651</v>
+      </c>
+      <c r="T81">
+        <v>3.843752481758263</v>
+      </c>
+      <c r="U81">
+        <v>0.0162</v>
+      </c>
+      <c r="V81">
+        <v>0.3</v>
+      </c>
+      <c r="W81">
+        <v>0.01134</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>223.6677605875918</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.09173334108513947</v>
+      </c>
+      <c r="C82">
+        <v>0.7354945613177488</v>
+      </c>
+      <c r="D82">
+        <v>3.295494561317749</v>
+      </c>
+      <c r="E82">
+        <v>2.56</v>
+      </c>
+      <c r="F82">
+        <v>2.56</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>3.2</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>11.8</v>
+      </c>
+      <c r="K82">
+        <v>2.64</v>
+      </c>
+      <c r="L82">
+        <v>9.16</v>
+      </c>
+      <c r="M82">
+        <v>0.04147200000000001</v>
+      </c>
+      <c r="N82">
+        <v>9.118528</v>
+      </c>
+      <c r="O82">
+        <v>2.7355584</v>
+      </c>
+      <c r="P82">
+        <v>6.382969599999999</v>
+      </c>
+      <c r="Q82">
+        <v>9.0229696</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.4133067054256975</v>
+      </c>
+      <c r="T82">
+        <v>4.020071402939835</v>
+      </c>
+      <c r="U82">
+        <v>0.0162</v>
+      </c>
+      <c r="V82">
+        <v>0.3</v>
+      </c>
+      <c r="W82">
+        <v>0.01134</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>220.8719135802469</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.09143478842296129</v>
+      </c>
+      <c r="C83">
+        <v>0.7047243239861256</v>
+      </c>
+      <c r="D83">
+        <v>3.296724323986126</v>
+      </c>
+      <c r="E83">
+        <v>2.592000000000001</v>
+      </c>
+      <c r="F83">
+        <v>2.592000000000001</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>3.2</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>11.8</v>
+      </c>
+      <c r="K83">
+        <v>2.64</v>
+      </c>
+      <c r="L83">
+        <v>9.16</v>
+      </c>
+      <c r="M83">
+        <v>0.0419904</v>
+      </c>
+      <c r="N83">
+        <v>9.118009600000001</v>
+      </c>
+      <c r="O83">
+        <v>2.73540288</v>
+      </c>
+      <c r="P83">
+        <v>6.38260672</v>
+      </c>
+      <c r="Q83">
+        <v>9.022606720000001</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.4328915180155859</v>
+      </c>
+      <c r="T83">
+        <v>4.214950210561573</v>
+      </c>
+      <c r="U83">
+        <v>0.0162</v>
+      </c>
+      <c r="V83">
+        <v>0.3</v>
+      </c>
+      <c r="W83">
+        <v>0.01134</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>218.1450998323426</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.09113623576078311</v>
+      </c>
+      <c r="C84">
+        <v>0.6739550048054799</v>
+      </c>
+      <c r="D84">
+        <v>3.29795500480548</v>
+      </c>
+      <c r="E84">
+        <v>2.624000000000001</v>
+      </c>
+      <c r="F84">
+        <v>2.624000000000001</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>3.2</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>11.8</v>
+      </c>
+      <c r="K84">
+        <v>2.64</v>
+      </c>
+      <c r="L84">
+        <v>9.16</v>
+      </c>
+      <c r="M84">
+        <v>0.04250880000000001</v>
+      </c>
+      <c r="N84">
+        <v>9.1174912</v>
+      </c>
+      <c r="O84">
+        <v>2.73524736</v>
+      </c>
+      <c r="P84">
+        <v>6.38224384</v>
+      </c>
+      <c r="Q84">
+        <v>9.02224384</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.4546524208932397</v>
+      </c>
+      <c r="T84">
+        <v>4.43148221903017</v>
+      </c>
+      <c r="U84">
+        <v>0.0162</v>
+      </c>
+      <c r="V84">
+        <v>0.3</v>
+      </c>
+      <c r="W84">
+        <v>0.01134</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>215.4847937368262</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.09083768309860493</v>
+      </c>
+      <c r="C85">
+        <v>0.6431866048044426</v>
+      </c>
+      <c r="D85">
+        <v>3.299186604804443</v>
+      </c>
+      <c r="E85">
+        <v>2.656000000000001</v>
+      </c>
+      <c r="F85">
+        <v>2.656000000000001</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>3.2</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>11.8</v>
+      </c>
+      <c r="K85">
+        <v>2.64</v>
+      </c>
+      <c r="L85">
+        <v>9.16</v>
+      </c>
+      <c r="M85">
+        <v>0.04302720000000001</v>
+      </c>
+      <c r="N85">
+        <v>9.116972800000001</v>
+      </c>
+      <c r="O85">
+        <v>2.73509184</v>
+      </c>
+      <c r="P85">
+        <v>6.38188096</v>
+      </c>
+      <c r="Q85">
+        <v>9.021880960000001</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.4789734299917939</v>
+      </c>
+      <c r="T85">
+        <v>4.673488581436249</v>
+      </c>
+      <c r="U85">
+        <v>0.0162</v>
+      </c>
+      <c r="V85">
+        <v>0.3</v>
+      </c>
+      <c r="W85">
+        <v>0.01134</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>212.8885914026476</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.09053913043642677</v>
+      </c>
+      <c r="C86">
+        <v>0.6124191250131839</v>
+      </c>
+      <c r="D86">
+        <v>3.300419125013184</v>
+      </c>
+      <c r="E86">
+        <v>2.688</v>
+      </c>
+      <c r="F86">
+        <v>2.688</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>3.2</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>11.8</v>
+      </c>
+      <c r="K86">
+        <v>2.64</v>
+      </c>
+      <c r="L86">
+        <v>9.16</v>
+      </c>
+      <c r="M86">
+        <v>0.0435456</v>
+      </c>
+      <c r="N86">
+        <v>9.1164544</v>
+      </c>
+      <c r="O86">
+        <v>2.73493632</v>
+      </c>
+      <c r="P86">
+        <v>6.38151808</v>
+      </c>
+      <c r="Q86">
+        <v>9.02151808</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.5063345652276672</v>
+      </c>
+      <c r="T86">
+        <v>4.945745739143085</v>
+      </c>
+      <c r="U86">
+        <v>0.0162</v>
+      </c>
+      <c r="V86">
+        <v>0.3</v>
+      </c>
+      <c r="W86">
+        <v>0.01134</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>210.354203409759</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.09024057777424857</v>
+      </c>
+      <c r="C87">
+        <v>0.5816525664634136</v>
+      </c>
+      <c r="D87">
+        <v>3.301652566463414</v>
+      </c>
+      <c r="E87">
+        <v>2.72</v>
+      </c>
+      <c r="F87">
+        <v>2.72</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>3.2</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>11.8</v>
+      </c>
+      <c r="K87">
+        <v>2.64</v>
+      </c>
+      <c r="L87">
+        <v>9.16</v>
+      </c>
+      <c r="M87">
+        <v>0.044064</v>
+      </c>
+      <c r="N87">
+        <v>9.115936</v>
+      </c>
+      <c r="O87">
+        <v>2.7347808</v>
+      </c>
+      <c r="P87">
+        <v>6.3811552</v>
+      </c>
+      <c r="Q87">
+        <v>9.021155200000001</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.5373438518283238</v>
+      </c>
+      <c r="T87">
+        <v>5.254303851210836</v>
+      </c>
+      <c r="U87">
+        <v>0.0162</v>
+      </c>
+      <c r="V87">
+        <v>0.3</v>
+      </c>
+      <c r="W87">
+        <v>0.01134</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>207.8794480755265</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.08994202511207038</v>
+      </c>
+      <c r="C88">
+        <v>0.5508869301883852</v>
+      </c>
+      <c r="D88">
+        <v>3.302886930188385</v>
+      </c>
+      <c r="E88">
+        <v>2.752</v>
+      </c>
+      <c r="F88">
+        <v>2.752</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>3.2</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>11.8</v>
+      </c>
+      <c r="K88">
+        <v>2.64</v>
+      </c>
+      <c r="L88">
+        <v>9.16</v>
+      </c>
+      <c r="M88">
+        <v>0.0445824</v>
+      </c>
+      <c r="N88">
+        <v>9.115417600000001</v>
+      </c>
+      <c r="O88">
+        <v>2.73462528</v>
+      </c>
+      <c r="P88">
+        <v>6.380792320000001</v>
+      </c>
+      <c r="Q88">
+        <v>9.020792320000002</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.5727830365147883</v>
+      </c>
+      <c r="T88">
+        <v>5.606941693573979</v>
+      </c>
+      <c r="U88">
+        <v>0.0162</v>
+      </c>
+      <c r="V88">
+        <v>0.3</v>
+      </c>
+      <c r="W88">
+        <v>0.01134</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>205.4622451909274</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.08964347244989219</v>
+      </c>
+      <c r="C89">
+        <v>0.5201222172228954</v>
+      </c>
+      <c r="D89">
+        <v>3.304122217222896</v>
+      </c>
+      <c r="E89">
+        <v>2.784</v>
+      </c>
+      <c r="F89">
+        <v>2.784</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>3.2</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>11.8</v>
+      </c>
+      <c r="K89">
+        <v>2.64</v>
+      </c>
+      <c r="L89">
+        <v>9.16</v>
+      </c>
+      <c r="M89">
+        <v>0.0451008</v>
+      </c>
+      <c r="N89">
+        <v>9.1148992</v>
+      </c>
+      <c r="O89">
+        <v>2.73446976</v>
+      </c>
+      <c r="P89">
+        <v>6.38042944</v>
+      </c>
+      <c r="Q89">
+        <v>9.020429440000001</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.6136744034607092</v>
+      </c>
+      <c r="T89">
+        <v>6.013831511685298</v>
+      </c>
+      <c r="U89">
+        <v>0.0162</v>
+      </c>
+      <c r="V89">
+        <v>0.3</v>
+      </c>
+      <c r="W89">
+        <v>0.01134</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>203.1006101887328</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.08934491978771403</v>
+      </c>
+      <c r="C90">
+        <v>0.4893584286032922</v>
+      </c>
+      <c r="D90">
+        <v>3.305358428603292</v>
+      </c>
+      <c r="E90">
+        <v>2.816</v>
+      </c>
+      <c r="F90">
+        <v>2.816</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>3.2</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>11.8</v>
+      </c>
+      <c r="K90">
+        <v>2.64</v>
+      </c>
+      <c r="L90">
+        <v>9.16</v>
+      </c>
+      <c r="M90">
+        <v>0.0456192</v>
+      </c>
+      <c r="N90">
+        <v>9.114380799999999</v>
+      </c>
+      <c r="O90">
+        <v>2.73431424</v>
+      </c>
+      <c r="P90">
+        <v>6.380066559999999</v>
+      </c>
+      <c r="Q90">
+        <v>9.02006656</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.6613809982309503</v>
+      </c>
+      <c r="T90">
+        <v>6.488536299481839</v>
+      </c>
+      <c r="U90">
+        <v>0.0162</v>
+      </c>
+      <c r="V90">
+        <v>0.3</v>
+      </c>
+      <c r="W90">
+        <v>0.01134</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>200.7926487093154</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.08904636712553585</v>
+      </c>
+      <c r="C91">
+        <v>0.4585955653674749</v>
+      </c>
+      <c r="D91">
+        <v>3.306595565367475</v>
+      </c>
+      <c r="E91">
+        <v>2.848</v>
+      </c>
+      <c r="F91">
+        <v>2.848</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>3.2</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>11.8</v>
+      </c>
+      <c r="K91">
+        <v>2.64</v>
+      </c>
+      <c r="L91">
+        <v>9.16</v>
+      </c>
+      <c r="M91">
+        <v>0.0461376</v>
+      </c>
+      <c r="N91">
+        <v>9.1138624</v>
+      </c>
+      <c r="O91">
+        <v>2.73415872</v>
+      </c>
+      <c r="P91">
+        <v>6.37970368</v>
+      </c>
+      <c r="Q91">
+        <v>9.019703680000001</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.7177615193230532</v>
+      </c>
+      <c r="T91">
+        <v>7.049551048695931</v>
+      </c>
+      <c r="U91">
+        <v>0.0162</v>
+      </c>
+      <c r="V91">
+        <v>0.3</v>
+      </c>
+      <c r="W91">
+        <v>0.01134</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>198.5365515328062</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.08874781446335767</v>
+      </c>
+      <c r="C92">
+        <v>0.4278336285548954</v>
+      </c>
+      <c r="D92">
+        <v>3.307833628554896</v>
+      </c>
+      <c r="E92">
+        <v>2.88</v>
+      </c>
+      <c r="F92">
+        <v>2.88</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>3.2</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>11.8</v>
+      </c>
+      <c r="K92">
+        <v>2.64</v>
+      </c>
+      <c r="L92">
+        <v>9.16</v>
+      </c>
+      <c r="M92">
+        <v>0.046656</v>
+      </c>
+      <c r="N92">
+        <v>9.113344</v>
+      </c>
+      <c r="O92">
+        <v>2.7340032</v>
+      </c>
+      <c r="P92">
+        <v>6.3793408</v>
+      </c>
+      <c r="Q92">
+        <v>9.0193408</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.7854181446335767</v>
+      </c>
+      <c r="T92">
+        <v>7.722768747752841</v>
+      </c>
+      <c r="U92">
+        <v>0.0162</v>
+      </c>
+      <c r="V92">
+        <v>0.3</v>
+      </c>
+      <c r="W92">
+        <v>0.01134</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>196.3305898491083</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.08844926180117946</v>
+      </c>
+      <c r="C93">
+        <v>0.3970726192065643</v>
+      </c>
+      <c r="D93">
+        <v>3.309072619206565</v>
+      </c>
+      <c r="E93">
+        <v>2.912</v>
+      </c>
+      <c r="F93">
+        <v>2.912</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>3.2</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>11.8</v>
+      </c>
+      <c r="K93">
+        <v>2.64</v>
+      </c>
+      <c r="L93">
+        <v>9.16</v>
+      </c>
+      <c r="M93">
+        <v>0.04717440000000001</v>
+      </c>
+      <c r="N93">
+        <v>9.112825600000001</v>
+      </c>
+      <c r="O93">
+        <v>2.73384768</v>
+      </c>
+      <c r="P93">
+        <v>6.378977920000001</v>
+      </c>
+      <c r="Q93">
+        <v>9.018977920000001</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.8681095755686611</v>
+      </c>
+      <c r="T93">
+        <v>8.545590379933509</v>
+      </c>
+      <c r="U93">
+        <v>0.0162</v>
+      </c>
+      <c r="V93">
+        <v>0.3</v>
+      </c>
+      <c r="W93">
+        <v>0.01134</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>194.1731108397775</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.08815070913900132</v>
+      </c>
+      <c r="C94">
+        <v>0.3663125383650527</v>
+      </c>
+      <c r="D94">
+        <v>3.310312538365053</v>
+      </c>
+      <c r="E94">
+        <v>2.944</v>
+      </c>
+      <c r="F94">
+        <v>2.944</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>3.2</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>11.8</v>
+      </c>
+      <c r="K94">
+        <v>2.64</v>
+      </c>
+      <c r="L94">
+        <v>9.16</v>
+      </c>
+      <c r="M94">
+        <v>0.0476928</v>
+      </c>
+      <c r="N94">
+        <v>9.1123072</v>
+      </c>
+      <c r="O94">
+        <v>2.73369216</v>
+      </c>
+      <c r="P94">
+        <v>6.37861504</v>
+      </c>
+      <c r="Q94">
+        <v>9.01861504</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.9714738642375168</v>
+      </c>
+      <c r="T94">
+        <v>9.574117420159348</v>
+      </c>
+      <c r="U94">
+        <v>0.0162</v>
+      </c>
+      <c r="V94">
+        <v>0.3</v>
+      </c>
+      <c r="W94">
+        <v>0.01134</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>192.0625335480408</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.08785215647682314</v>
+      </c>
+      <c r="C95">
+        <v>0.3355533870744938</v>
+      </c>
+      <c r="D95">
+        <v>3.311553387074494</v>
+      </c>
+      <c r="E95">
+        <v>2.976</v>
+      </c>
+      <c r="F95">
+        <v>2.976</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>3.2</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>11.8</v>
+      </c>
+      <c r="K95">
+        <v>2.64</v>
+      </c>
+      <c r="L95">
+        <v>9.16</v>
+      </c>
+      <c r="M95">
+        <v>0.0482112</v>
+      </c>
+      <c r="N95">
+        <v>9.111788799999999</v>
+      </c>
+      <c r="O95">
+        <v>2.73353664</v>
+      </c>
+      <c r="P95">
+        <v>6.37825216</v>
+      </c>
+      <c r="Q95">
+        <v>9.018252159999999</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>1.10437080681176</v>
+      </c>
+      <c r="T95">
+        <v>10.89650932902114</v>
+      </c>
+      <c r="U95">
+        <v>0.0162</v>
+      </c>
+      <c r="V95">
+        <v>0.3</v>
+      </c>
+      <c r="W95">
+        <v>0.01134</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>189.9973450152661</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.08755360381464494</v>
+      </c>
+      <c r="C96">
+        <v>0.3047951663805883</v>
+      </c>
+      <c r="D96">
+        <v>3.312795166380589</v>
+      </c>
+      <c r="E96">
+        <v>3.008</v>
+      </c>
+      <c r="F96">
+        <v>3.008</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>3.2</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>11.8</v>
+      </c>
+      <c r="K96">
+        <v>2.64</v>
+      </c>
+      <c r="L96">
+        <v>9.16</v>
+      </c>
+      <c r="M96">
+        <v>0.0487296</v>
+      </c>
+      <c r="N96">
+        <v>9.1112704</v>
+      </c>
+      <c r="O96">
+        <v>2.73338112</v>
+      </c>
+      <c r="P96">
+        <v>6.37788928</v>
+      </c>
+      <c r="Q96">
+        <v>9.01788928</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.281566730244084</v>
+      </c>
+      <c r="T96">
+        <v>12.65969854083686</v>
+      </c>
+      <c r="U96">
+        <v>0.0162</v>
+      </c>
+      <c r="V96">
+        <v>0.3</v>
+      </c>
+      <c r="W96">
+        <v>0.01134</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>187.9760966640399</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.08725505115246678</v>
+      </c>
+      <c r="C97">
+        <v>0.2740378773306049</v>
+      </c>
+      <c r="D97">
+        <v>3.314037877330605</v>
+      </c>
+      <c r="E97">
+        <v>3.04</v>
+      </c>
+      <c r="F97">
+        <v>3.04</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>3.2</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>11.8</v>
+      </c>
+      <c r="K97">
+        <v>2.64</v>
+      </c>
+      <c r="L97">
+        <v>9.16</v>
+      </c>
+      <c r="M97">
+        <v>0.04924800000000001</v>
+      </c>
+      <c r="N97">
+        <v>9.110752</v>
+      </c>
+      <c r="O97">
+        <v>2.7332256</v>
+      </c>
+      <c r="P97">
+        <v>6.3775264</v>
+      </c>
+      <c r="Q97">
+        <v>9.017526399999999</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.529641023049337</v>
+      </c>
+      <c r="T97">
+        <v>15.12816343737887</v>
+      </c>
+      <c r="U97">
+        <v>0.0162</v>
+      </c>
+      <c r="V97">
+        <v>0.3</v>
+      </c>
+      <c r="W97">
+        <v>0.01134</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>185.9974009096816</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.08695649849028858</v>
+      </c>
+      <c r="C98">
+        <v>0.2432815209733858</v>
+      </c>
+      <c r="D98">
+        <v>3.315281520973386</v>
+      </c>
+      <c r="E98">
+        <v>3.072</v>
+      </c>
+      <c r="F98">
+        <v>3.072</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>3.2</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>11.8</v>
+      </c>
+      <c r="K98">
+        <v>2.64</v>
+      </c>
+      <c r="L98">
+        <v>9.16</v>
+      </c>
+      <c r="M98">
+        <v>0.0497664</v>
+      </c>
+      <c r="N98">
+        <v>9.110233600000001</v>
+      </c>
+      <c r="O98">
+        <v>2.73307008</v>
+      </c>
+      <c r="P98">
+        <v>6.377163520000001</v>
+      </c>
+      <c r="Q98">
+        <v>9.01716352</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.901752462257213</v>
+      </c>
+      <c r="T98">
+        <v>18.83086078219184</v>
+      </c>
+      <c r="U98">
+        <v>0.0162</v>
+      </c>
+      <c r="V98">
+        <v>0.3</v>
+      </c>
+      <c r="W98">
+        <v>0.01134</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>184.0599279835391</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.08665794582811041</v>
+      </c>
+      <c r="C99">
+        <v>0.2125260983593455</v>
+      </c>
+      <c r="D99">
+        <v>3.316526098359346</v>
+      </c>
+      <c r="E99">
+        <v>3.104</v>
+      </c>
+      <c r="F99">
+        <v>3.104</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>3.2</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>11.8</v>
+      </c>
+      <c r="K99">
+        <v>2.64</v>
+      </c>
+      <c r="L99">
+        <v>9.16</v>
+      </c>
+      <c r="M99">
+        <v>0.0502848</v>
+      </c>
+      <c r="N99">
+        <v>9.1097152</v>
+      </c>
+      <c r="O99">
+        <v>2.73291456</v>
+      </c>
+      <c r="P99">
+        <v>6.376800640000001</v>
+      </c>
+      <c r="Q99">
+        <v>9.016800640000001</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>2.521938194270345</v>
+      </c>
+      <c r="T99">
+        <v>25.00202302354685</v>
+      </c>
+      <c r="U99">
+        <v>0.0162</v>
+      </c>
+      <c r="V99">
+        <v>0.3</v>
+      </c>
+      <c r="W99">
+        <v>0.01134</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>182.162402952781</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.08635939316593222</v>
+      </c>
+      <c r="C100">
+        <v>0.1817716105404785</v>
+      </c>
+      <c r="D100">
+        <v>3.317771610540479</v>
+      </c>
+      <c r="E100">
+        <v>3.136</v>
+      </c>
+      <c r="F100">
+        <v>3.136</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>3.2</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>11.8</v>
+      </c>
+      <c r="K100">
+        <v>2.64</v>
+      </c>
+      <c r="L100">
+        <v>9.16</v>
+      </c>
+      <c r="M100">
+        <v>0.0508032</v>
+      </c>
+      <c r="N100">
+        <v>9.109196799999999</v>
+      </c>
+      <c r="O100">
+        <v>2.73275904</v>
+      </c>
+      <c r="P100">
+        <v>6.37643776</v>
+      </c>
+      <c r="Q100">
+        <v>9.016437760000001</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>3.762309658296607</v>
+      </c>
+      <c r="T100">
+        <v>37.34434750625685</v>
+      </c>
+      <c r="U100">
+        <v>0.0162</v>
+      </c>
+      <c r="V100">
+        <v>0.3</v>
+      </c>
+      <c r="W100">
+        <v>0.01134</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>180.3036029226505</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.08606084050375402</v>
+      </c>
+      <c r="C101">
+        <v>0.1510180585703602</v>
+      </c>
+      <c r="D101">
+        <v>3.31901805857036</v>
+      </c>
+      <c r="E101">
+        <v>3.168</v>
+      </c>
+      <c r="F101">
+        <v>3.168</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>3.2</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>11.8</v>
+      </c>
+      <c r="K101">
+        <v>2.64</v>
+      </c>
+      <c r="L101">
+        <v>9.16</v>
+      </c>
+      <c r="M101">
+        <v>0.0513216</v>
+      </c>
+      <c r="N101">
+        <v>9.108678400000001</v>
+      </c>
+      <c r="O101">
+        <v>2.73260352</v>
+      </c>
+      <c r="P101">
+        <v>6.376074880000001</v>
+      </c>
+      <c r="Q101">
+        <v>9.016074880000001</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>7.483424050375396</v>
+      </c>
+      <c r="T101">
+        <v>74.37132095438687</v>
+      </c>
+      <c r="U101">
+        <v>0.0162</v>
+      </c>
+      <c r="V101">
+        <v>0.3</v>
+      </c>
+      <c r="W101">
+        <v>0.01134</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>178.4823544082803</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
